--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>535338.0838458115</v>
+        <v>540741.4239991978</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.142433862</v>
+        <v>6742609.142433866</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16888659.6720765</v>
+        <v>16888659.67207651</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5964583.737490004</v>
+        <v>5964583.737490005</v>
       </c>
     </row>
     <row r="11">
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>82.88054011090114</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>73.00117972968171</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,16 +2166,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,20 +2242,20 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="G22" t="n">
-        <v>73.00117972968171</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
@@ -2281,28 +2281,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R22" t="n">
+        <v>8.697622731470398</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="V23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,76 +2394,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C24" t="n">
-        <v>73.00117972968171</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>73.00117972968168</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,67 +2482,67 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="F25" t="n">
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>73.00117972968171</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="G25" t="n">
+      <c r="Y25" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="H25" t="n">
-        <v>73.00117972968171</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,59 +2552,59 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>73.00117972968171</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="X26" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,76 +2631,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>73.00117972968168</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>73.00117972968168</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
       <c r="Y27" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2755,16 +2755,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>8.697622731470426</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,58 +2795,58 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="E29" t="n">
+      <c r="S29" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="F29" t="n">
+      <c r="T29" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="G29" t="n">
+      <c r="U29" t="n">
         <v>73.00117972968171</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T30" t="n">
         <v>82.88054011090114</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,58 +2965,58 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>73.00117972968171</v>
+      </c>
+      <c r="Y31" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="V31" t="n">
-        <v>73.00117972968171</v>
-      </c>
-      <c r="W31" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T32" t="n">
         <v>82.88054011090114</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,73 +3105,73 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>78.67633314568958</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>73.00117972968168</v>
-      </c>
       <c r="W33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>77.20538669489326</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>82.88054011090114</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="S35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>82.88054011090114</v>
       </c>
       <c r="U35" t="n">
-        <v>73.00117972968171</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>77.20538669489326</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="G36" t="n">
         <v>82.88054011090114</v>
@@ -3363,7 +3363,7 @@
         <v>82.88054011090114</v>
       </c>
       <c r="I36" t="n">
-        <v>78.67633314568958</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>73.00117972968171</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.88054011090114</v>
+        <v>80.97802203781062</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,64 +3503,64 @@
         <v>82.88054011090114</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>73.00117972968171</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>82.88054011090114</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>82.88054011090114</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H39" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>73.00117972968168</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>8.69762273147043</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T41" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="U41" t="n">
         <v>82.88054011090114</v>
       </c>
       <c r="V41" t="n">
-        <v>82.88054011090114</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="W41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,58 +3816,58 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>73.00117972968168</v>
+      </c>
+      <c r="S42" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="C42" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="D42" t="n">
-        <v>73.00117972968171</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>82.88054011090114</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="43">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>174.0658777763491</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C20" t="n">
-        <v>174.0658777763491</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D20" t="n">
-        <v>174.0658777763491</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E20" t="n">
         <v>90.34816049261062</v>
@@ -5741,7 +5741,7 @@
         <v>90.34816049261062</v>
       </c>
       <c r="G20" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H20" t="n">
         <v>6.630443208872091</v>
@@ -5750,22 +5750,22 @@
         <v>6.630443208872091</v>
       </c>
       <c r="J20" t="n">
-        <v>6.630443208872091</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="K20" t="n">
-        <v>6.630443208872091</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L20" t="n">
-        <v>6.630443208872091</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="M20" t="n">
-        <v>88.68217791866422</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="N20" t="n">
-        <v>170.7339126284564</v>
+        <v>289.8535734151699</v>
       </c>
       <c r="O20" t="n">
-        <v>252.7856473382485</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P20" t="n">
         <v>331.5221604436045</v>
@@ -5777,25 +5777,25 @@
         <v>247.804443159866</v>
       </c>
       <c r="S20" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T20" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U20" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V20" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W20" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X20" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="Y20" t="n">
-        <v>174.0658777763491</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="C21" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="D21" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="E21" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="F21" t="n">
-        <v>6.630443208872091</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="G21" t="n">
-        <v>6.630443208872091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="H21" t="n">
         <v>6.630443208872091</v>
@@ -5829,10 +5829,10 @@
         <v>6.630443208872091</v>
       </c>
       <c r="J21" t="n">
-        <v>6.630443208872091</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K21" t="n">
-        <v>85.36695631422816</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="L21" t="n">
         <v>85.36695631422816</v>
@@ -5841,13 +5841,13 @@
         <v>85.36695631422816</v>
       </c>
       <c r="N21" t="n">
-        <v>85.36695631422816</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="O21" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P21" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q21" t="n">
         <v>331.5221604436045</v>
@@ -5856,25 +5856,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S21" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T21" t="n">
-        <v>164.0867258761275</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U21" t="n">
-        <v>80.36900859238898</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V21" t="n">
-        <v>80.36900859238898</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W21" t="n">
-        <v>80.36900859238898</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X21" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="C22" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="D22" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="E22" t="n">
-        <v>164.0867258761275</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="F22" t="n">
-        <v>80.36900859238898</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="G22" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H22" t="n">
         <v>6.630443208872091</v>
@@ -5911,10 +5911,10 @@
         <v>6.630443208872091</v>
       </c>
       <c r="K22" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571537</v>
       </c>
       <c r="L22" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233591</v>
       </c>
       <c r="M22" t="n">
         <v>160.0418085032467</v>
@@ -5929,31 +5929,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q22" t="n">
-        <v>331.5221604436045</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="R22" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="S22" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="T22" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="U22" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="V22" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="W22" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="X22" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.36900859238898</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="C23" t="n">
-        <v>80.36900859238898</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="D23" t="n">
-        <v>80.36900859238898</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E23" t="n">
-        <v>80.36900859238898</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F23" t="n">
-        <v>80.36900859238898</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G23" t="n">
-        <v>80.36900859238898</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H23" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="I23" t="n">
         <v>6.630443208872091</v>
@@ -5990,16 +5990,16 @@
         <v>43.6983692857935</v>
       </c>
       <c r="K23" t="n">
-        <v>125.7501039955856</v>
+        <v>115.094676728219</v>
       </c>
       <c r="L23" t="n">
-        <v>207.8018387053777</v>
+        <v>115.094676728219</v>
       </c>
       <c r="M23" t="n">
-        <v>279.1981461478033</v>
+        <v>115.094676728219</v>
       </c>
       <c r="N23" t="n">
-        <v>279.1981461478033</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="O23" t="n">
         <v>279.1981461478033</v>
@@ -6020,19 +6020,19 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U23" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="V23" t="n">
-        <v>164.0867258761275</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="W23" t="n">
-        <v>80.36900859238898</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="X23" t="n">
-        <v>80.36900859238898</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="Y23" t="n">
-        <v>80.36900859238898</v>
+        <v>257.7835950600877</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C24" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D24" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E24" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F24" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G24" t="n">
         <v>6.630443208872091</v>
@@ -6072,16 +6072,16 @@
         <v>35.01446635656757</v>
       </c>
       <c r="L24" t="n">
-        <v>117.0662010663597</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="M24" t="n">
-        <v>199.1179357761518</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="N24" t="n">
-        <v>199.1179357761518</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="O24" t="n">
-        <v>249.4704257338124</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="P24" t="n">
         <v>249.4704257338124</v>
@@ -6096,22 +6096,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T24" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U24" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V24" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W24" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="X24" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="Y24" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C25" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D25" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E25" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F25" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G25" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H25" t="n">
         <v>6.630443208872091</v>
@@ -6148,10 +6148,10 @@
         <v>6.630443208872091</v>
       </c>
       <c r="K25" t="n">
-        <v>14.60839277571537</v>
+        <v>14.60839277571539</v>
       </c>
       <c r="L25" t="n">
-        <v>80.34385611233591</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M25" t="n">
         <v>160.0418085032467</v>
@@ -6175,22 +6175,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T25" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U25" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V25" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W25" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X25" t="n">
-        <v>331.5221604436045</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y25" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C26" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="D26" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="E26" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="F26" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="G26" t="n">
-        <v>90.34816049261062</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="H26" t="n">
         <v>6.630443208872091</v>
@@ -6227,22 +6227,22 @@
         <v>43.6983692857935</v>
       </c>
       <c r="K26" t="n">
-        <v>43.6983692857935</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L26" t="n">
-        <v>85.36695631422816</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="M26" t="n">
-        <v>167.4186910240203</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="N26" t="n">
-        <v>249.4704257338124</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="O26" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="P26" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="Q26" t="n">
         <v>331.5221604436045</v>
@@ -6251,22 +6251,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S26" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T26" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U26" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V26" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W26" t="n">
         <v>247.804443159866</v>
       </c>
       <c r="X26" t="n">
-        <v>164.0867258761275</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y26" t="n">
         <v>164.0867258761275</v>
@@ -6282,10 +6282,10 @@
         <v>90.34816049261062</v>
       </c>
       <c r="C27" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D27" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E27" t="n">
         <v>6.630443208872091</v>
@@ -6303,22 +6303,22 @@
         <v>6.630443208872091</v>
       </c>
       <c r="J27" t="n">
-        <v>6.630443208872091</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K27" t="n">
-        <v>6.630443208872091</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L27" t="n">
-        <v>88.68217791866422</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="M27" t="n">
-        <v>170.7339126284564</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N27" t="n">
-        <v>252.7856473382485</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O27" t="n">
-        <v>331.5221604436045</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P27" t="n">
         <v>331.5221604436045</v>
@@ -6327,7 +6327,7 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R27" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S27" t="n">
         <v>257.7835950600877</v>
@@ -6339,16 +6339,16 @@
         <v>257.7835950600877</v>
       </c>
       <c r="V27" t="n">
-        <v>174.0658777763491</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="W27" t="n">
-        <v>174.0658777763491</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="X27" t="n">
         <v>174.0658777763491</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.34816049261062</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="C28" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="D28" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="E28" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="F28" t="n">
-        <v>6.630443208872091</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="G28" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H28" t="n">
         <v>6.630443208872091</v>
@@ -6382,13 +6382,13 @@
         <v>6.630443208872091</v>
       </c>
       <c r="J28" t="n">
-        <v>6.6304432088721</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K28" t="n">
-        <v>14.6083927757154</v>
+        <v>14.60839277571539</v>
       </c>
       <c r="L28" t="n">
-        <v>80.34385611233596</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M28" t="n">
         <v>160.0418085032467</v>
@@ -6403,31 +6403,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R28" t="n">
-        <v>182.8513552828849</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S28" t="n">
-        <v>174.0658777763491</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T28" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U28" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V28" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W28" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X28" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.630443208872091</v>
+        <v>331.5221604436045</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C29" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D29" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E29" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F29" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G29" t="n">
         <v>6.630443208872091</v>
@@ -6461,52 +6461,52 @@
         <v>6.630443208872091</v>
       </c>
       <c r="J29" t="n">
-        <v>43.6983692857935</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K29" t="n">
-        <v>43.6983692857935</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="L29" t="n">
-        <v>43.6983692857935</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="M29" t="n">
-        <v>43.6983692857935</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="N29" t="n">
-        <v>125.7501039955856</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="O29" t="n">
-        <v>207.8018387053777</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P29" t="n">
-        <v>279.1981461478033</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q29" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R29" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S29" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="T29" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="U29" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="V29" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="W29" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X29" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y29" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C30" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D30" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E30" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F30" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G30" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H30" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I30" t="n">
         <v>6.630443208872091</v>
       </c>
       <c r="J30" t="n">
-        <v>6.630443208872091</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K30" t="n">
-        <v>6.630443208872091</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="L30" t="n">
-        <v>88.68217791866422</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="M30" t="n">
-        <v>170.7339126284564</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="N30" t="n">
-        <v>249.4704257338124</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="O30" t="n">
         <v>331.5221604436045</v>
@@ -6564,28 +6564,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R30" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="S30" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="T30" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="U30" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="V30" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="W30" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X30" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y30" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C31" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D31" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E31" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F31" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G31" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H31" t="n">
         <v>6.630443208872091</v>
@@ -6619,13 +6619,13 @@
         <v>6.630443208872091</v>
       </c>
       <c r="J31" t="n">
-        <v>6.630443208872091</v>
+        <v>6.6304432088721</v>
       </c>
       <c r="K31" t="n">
-        <v>14.60839277571539</v>
+        <v>14.6083927757154</v>
       </c>
       <c r="L31" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233596</v>
       </c>
       <c r="M31" t="n">
         <v>160.0418085032467</v>
@@ -6652,16 +6652,16 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U31" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="V31" t="n">
         <v>247.804443159866</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
+        <v>247.804443159866</v>
+      </c>
+      <c r="X31" t="n">
         <v>174.0658777763491</v>
-      </c>
-      <c r="W31" t="n">
-        <v>90.34816049261062</v>
-      </c>
-      <c r="X31" t="n">
-        <v>90.34816049261062</v>
       </c>
       <c r="Y31" t="n">
         <v>90.34816049261062</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F32" t="n">
         <v>6.630443208872091</v>
@@ -6704,46 +6704,46 @@
         <v>43.6983692857935</v>
       </c>
       <c r="L32" t="n">
+        <v>43.6983692857935</v>
+      </c>
+      <c r="M32" t="n">
         <v>125.7501039955856</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>207.8018387053777</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>289.8535734151699</v>
       </c>
-      <c r="O32" t="n">
-        <v>331.5221604436045</v>
-      </c>
       <c r="P32" t="n">
-        <v>331.5221604436045</v>
+        <v>289.8535734151699</v>
       </c>
       <c r="Q32" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R32" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S32" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="T32" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="U32" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="V32" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="W32" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X32" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.34816049261062</v>
+        <v>169.8192040741152</v>
       </c>
       <c r="C33" t="n">
-        <v>90.34816049261062</v>
+        <v>169.8192040741152</v>
       </c>
       <c r="D33" t="n">
-        <v>90.34816049261062</v>
+        <v>169.8192040741152</v>
       </c>
       <c r="E33" t="n">
-        <v>90.34816049261062</v>
+        <v>169.8192040741152</v>
       </c>
       <c r="F33" t="n">
-        <v>90.34816049261062</v>
+        <v>169.8192040741152</v>
       </c>
       <c r="G33" t="n">
-        <v>90.34816049261062</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="H33" t="n">
-        <v>6.630443208872091</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="I33" t="n">
         <v>6.630443208872091</v>
@@ -6786,16 +6786,16 @@
         <v>88.68217791866422</v>
       </c>
       <c r="M33" t="n">
-        <v>167.4186910240203</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="N33" t="n">
-        <v>249.4704257338124</v>
+        <v>170.7339126284564</v>
       </c>
       <c r="O33" t="n">
-        <v>331.5221604436045</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="P33" t="n">
-        <v>331.5221604436045</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="Q33" t="n">
         <v>331.5221604436045</v>
@@ -6813,16 +6813,16 @@
         <v>331.5221604436045</v>
       </c>
       <c r="V33" t="n">
-        <v>257.7835950600877</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W33" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X33" t="n">
-        <v>174.0658777763491</v>
+        <v>169.8192040741152</v>
       </c>
       <c r="Y33" t="n">
-        <v>174.0658777763491</v>
+        <v>169.8192040741152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="C34" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="D34" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="E34" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="F34" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="G34" t="n">
-        <v>6.630443208872091</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="H34" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="I34" t="n">
         <v>6.630443208872091</v>
       </c>
       <c r="J34" t="n">
-        <v>6.630443208872091</v>
+        <v>6.6304432088721</v>
       </c>
       <c r="K34" t="n">
-        <v>14.60839277571539</v>
+        <v>14.6083927757154</v>
       </c>
       <c r="L34" t="n">
         <v>80.34385611233596</v>
@@ -6886,22 +6886,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T34" t="n">
-        <v>257.7835950600877</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U34" t="n">
-        <v>174.0658777763491</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V34" t="n">
-        <v>90.34816049261062</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W34" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X34" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.630443208872091</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C35" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D35" t="n">
         <v>6.630443208872091</v>
@@ -6941,46 +6941,46 @@
         <v>43.6983692857935</v>
       </c>
       <c r="L35" t="n">
-        <v>43.6983692857935</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="M35" t="n">
-        <v>43.6983692857935</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="N35" t="n">
-        <v>115.094676728219</v>
+        <v>289.8535734151699</v>
       </c>
       <c r="O35" t="n">
-        <v>197.1464114380112</v>
+        <v>289.8535734151699</v>
       </c>
       <c r="P35" t="n">
-        <v>279.1981461478033</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q35" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R35" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="S35" t="n">
-        <v>164.0867258761275</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="T35" t="n">
-        <v>80.36900859238898</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="U35" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="V35" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="W35" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="X35" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.630443208872091</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="36">
@@ -7002,13 +7002,13 @@
         <v>331.5221604436045</v>
       </c>
       <c r="F36" t="n">
-        <v>253.5369213578538</v>
+        <v>247.804443159866</v>
       </c>
       <c r="G36" t="n">
-        <v>169.8192040741152</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="H36" t="n">
-        <v>86.10148679037673</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="I36" t="n">
         <v>6.630443208872091</v>
@@ -7017,19 +7017,19 @@
         <v>35.01446635656757</v>
       </c>
       <c r="K36" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L36" t="n">
-        <v>35.01446635656757</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="M36" t="n">
-        <v>35.01446635656757</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="N36" t="n">
-        <v>85.36695631422816</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O36" t="n">
-        <v>167.4186910240203</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P36" t="n">
         <v>249.4704257338124</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.36900859238898</v>
+        <v>166.0084613034917</v>
       </c>
       <c r="C37" t="n">
-        <v>6.630443208872091</v>
+        <v>166.0084613034917</v>
       </c>
       <c r="D37" t="n">
-        <v>6.630443208872091</v>
+        <v>166.0084613034917</v>
       </c>
       <c r="E37" t="n">
-        <v>6.630443208872091</v>
+        <v>166.0084613034917</v>
       </c>
       <c r="F37" t="n">
-        <v>6.630443208872091</v>
+        <v>166.0084613034917</v>
       </c>
       <c r="G37" t="n">
-        <v>6.630443208872091</v>
+        <v>166.0084613034917</v>
       </c>
       <c r="H37" t="n">
-        <v>6.630443208872091</v>
+        <v>166.0084613034917</v>
       </c>
       <c r="I37" t="n">
-        <v>6.630443208872091</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="J37" t="n">
         <v>6.630443208872091</v>
@@ -7132,13 +7132,13 @@
         <v>247.804443159866</v>
       </c>
       <c r="W37" t="n">
-        <v>164.0867258761275</v>
+        <v>166.0084613034917</v>
       </c>
       <c r="X37" t="n">
-        <v>164.0867258761275</v>
+        <v>166.0084613034917</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.36900859238898</v>
+        <v>166.0084613034917</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C38" t="n">
         <v>6.630443208872091</v>
@@ -7181,13 +7181,13 @@
         <v>88.68217791866422</v>
       </c>
       <c r="M38" t="n">
-        <v>170.7339126284564</v>
+        <v>88.68217791866422</v>
       </c>
       <c r="N38" t="n">
+        <v>115.094676728219</v>
+      </c>
+      <c r="O38" t="n">
         <v>197.1464114380112</v>
-      </c>
-      <c r="O38" t="n">
-        <v>279.1981461478033</v>
       </c>
       <c r="P38" t="n">
         <v>279.1981461478033</v>
@@ -7199,25 +7199,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S38" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T38" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U38" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X38" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y38" t="n">
-        <v>164.0867258761275</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>257.7835950600877</v>
+      </c>
+      <c r="C39" t="n">
+        <v>257.7835950600877</v>
+      </c>
+      <c r="D39" t="n">
+        <v>257.7835950600877</v>
+      </c>
+      <c r="E39" t="n">
         <v>174.0658777763491</v>
-      </c>
-      <c r="C39" t="n">
-        <v>174.0658777763491</v>
-      </c>
-      <c r="D39" t="n">
-        <v>174.0658777763491</v>
-      </c>
-      <c r="E39" t="n">
-        <v>90.34816049261062</v>
       </c>
       <c r="F39" t="n">
         <v>90.34816049261062</v>
       </c>
       <c r="G39" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H39" t="n">
         <v>6.630443208872091</v>
@@ -7251,52 +7251,52 @@
         <v>6.630443208872091</v>
       </c>
       <c r="J39" t="n">
-        <v>35.01446635656757</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K39" t="n">
-        <v>117.0662010663597</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="L39" t="n">
-        <v>199.1179357761518</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="M39" t="n">
-        <v>199.1179357761518</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="N39" t="n">
-        <v>199.1179357761518</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="O39" t="n">
-        <v>199.1179357761518</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P39" t="n">
-        <v>281.1696704859439</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q39" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R39" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="S39" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="T39" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="U39" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="V39" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="W39" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="X39" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="Y39" t="n">
         <v>257.7835950600877</v>
-      </c>
-      <c r="S39" t="n">
-        <v>257.7835950600877</v>
-      </c>
-      <c r="T39" t="n">
-        <v>257.7835950600877</v>
-      </c>
-      <c r="U39" t="n">
-        <v>257.7835950600877</v>
-      </c>
-      <c r="V39" t="n">
-        <v>174.0658777763491</v>
-      </c>
-      <c r="W39" t="n">
-        <v>174.0658777763491</v>
-      </c>
-      <c r="X39" t="n">
-        <v>174.0658777763491</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.41592071540788</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C40" t="n">
-        <v>15.41592071540788</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D40" t="n">
-        <v>15.41592071540788</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E40" t="n">
-        <v>15.41592071540788</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F40" t="n">
         <v>6.630443208872091</v>
@@ -7330,13 +7330,13 @@
         <v>6.630443208872091</v>
       </c>
       <c r="J40" t="n">
-        <v>6.630443208872091</v>
+        <v>6.6304432088721</v>
       </c>
       <c r="K40" t="n">
-        <v>14.60839277571539</v>
+        <v>14.6083927757154</v>
       </c>
       <c r="L40" t="n">
-        <v>80.34385611233594</v>
+        <v>80.34385611233596</v>
       </c>
       <c r="M40" t="n">
         <v>160.0418085032467</v>
@@ -7351,31 +7351,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q40" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R40" t="n">
-        <v>182.8513552828849</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="S40" t="n">
-        <v>182.8513552828849</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="T40" t="n">
-        <v>99.1336379991464</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="U40" t="n">
-        <v>99.1336379991464</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V40" t="n">
-        <v>99.1336379991464</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W40" t="n">
-        <v>99.1336379991464</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X40" t="n">
-        <v>99.1336379991464</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.41592071540788</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="41">
@@ -7415,16 +7415,16 @@
         <v>43.6983692857935</v>
       </c>
       <c r="L41" t="n">
-        <v>43.6983692857935</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="M41" t="n">
-        <v>43.6983692857935</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="N41" t="n">
-        <v>115.094676728219</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="O41" t="n">
-        <v>197.1464114380112</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="P41" t="n">
         <v>279.1981461478033</v>
@@ -7436,16 +7436,16 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S41" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T41" t="n">
-        <v>257.7835950600877</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="U41" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="V41" t="n">
-        <v>90.34816049261062</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="W41" t="n">
         <v>6.630443208872091</v>
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>164.0867258761275</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C42" t="n">
-        <v>80.36900859238898</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D42" t="n">
         <v>6.630443208872091</v>
@@ -7491,49 +7491,49 @@
         <v>35.01446635656757</v>
       </c>
       <c r="K42" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L42" t="n">
-        <v>35.01446635656757</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="M42" t="n">
-        <v>35.01446635656757</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="N42" t="n">
-        <v>85.36695631422816</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O42" t="n">
-        <v>167.4186910240203</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P42" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q42" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R42" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="S42" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="T42" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="U42" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="V42" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="W42" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="X42" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y42" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="43">
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L20" t="n">
         <v>143.9315300967061</v>
@@ -9413,10 +9413,10 @@
         <v>208.4561555814414</v>
       </c>
       <c r="O20" t="n">
-        <v>214.927993750524</v>
+        <v>174.1369354865265</v>
       </c>
       <c r="P20" t="n">
-        <v>227.0807738922844</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q20" t="n">
         <v>159.4624509671762</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.42030488819117</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>167.0943819524207</v>
+        <v>87.56255053286914</v>
       </c>
       <c r="L21" t="n">
-        <v>70.94820947007285</v>
+        <v>121.8093104374068</v>
       </c>
       <c r="M21" t="n">
         <v>63.24082194752641</v>
       </c>
       <c r="N21" t="n">
-        <v>50.36043154195549</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O21" t="n">
         <v>151.3947338373213</v>
@@ -9498,7 +9498,7 @@
         <v>157.397570635056</v>
       </c>
       <c r="Q21" t="n">
-        <v>183.1166323325361</v>
+        <v>100.2360922216349</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>228.9451278654827</v>
+        <v>218.1820700196579</v>
       </c>
       <c r="L23" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M23" t="n">
-        <v>200.2797113828769</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N23" t="n">
-        <v>125.5756154705403</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O23" t="n">
-        <v>132.0474536396228</v>
+        <v>214.927993750524</v>
       </c>
       <c r="P23" t="n">
         <v>147.5489424727328</v>
@@ -9720,19 +9720,19 @@
         <v>87.56255053286914</v>
       </c>
       <c r="L24" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M24" t="n">
-        <v>146.1213620584276</v>
+        <v>114.1019229148603</v>
       </c>
       <c r="N24" t="n">
-        <v>50.36043154195549</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O24" t="n">
-        <v>119.3752946937541</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P24" t="n">
-        <v>74.5170305241549</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q24" t="n">
         <v>183.1166323325361</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L26" t="n">
-        <v>186.0210119436098</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M26" t="n">
-        <v>211.0427692287017</v>
+        <v>200.2797113828769</v>
       </c>
       <c r="N26" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O26" t="n">
-        <v>214.927993750524</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P26" t="n">
         <v>147.5489424727328</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.42030488819117</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>87.56255053286914</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L27" t="n">
         <v>153.828749580974</v>
       </c>
       <c r="M27" t="n">
-        <v>146.1213620584276</v>
+        <v>114.1019229148604</v>
       </c>
       <c r="N27" t="n">
-        <v>133.2409716528566</v>
+        <v>50.36043154195549</v>
       </c>
       <c r="O27" t="n">
-        <v>148.0460251459717</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P27" t="n">
-        <v>74.5170305241549</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q27" t="n">
         <v>100.2360922216349</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>131.6542655994259</v>
       </c>
       <c r="K29" t="n">
         <v>146.0645877545816</v>
       </c>
       <c r="L29" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M29" t="n">
-        <v>128.1622291178006</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N29" t="n">
         <v>208.4561555814414</v>
       </c>
       <c r="O29" t="n">
-        <v>214.927993750524</v>
+        <v>211.5792850591744</v>
       </c>
       <c r="P29" t="n">
-        <v>219.6664247378091</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.42030488819117</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>87.56255053286914</v>
@@ -10200,10 +10200,10 @@
         <v>146.1213620584276</v>
       </c>
       <c r="N30" t="n">
-        <v>129.8922629615071</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O30" t="n">
-        <v>151.3947338373213</v>
+        <v>119.3752946937541</v>
       </c>
       <c r="P30" t="n">
         <v>74.5170305241549</v>
@@ -10352,7 +10352,7 @@
         <v>146.0645877545816</v>
       </c>
       <c r="L32" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M32" t="n">
         <v>211.0427692287017</v>
@@ -10361,13 +10361,13 @@
         <v>208.4561555814414</v>
       </c>
       <c r="O32" t="n">
-        <v>174.1369354865265</v>
+        <v>214.927993750524</v>
       </c>
       <c r="P32" t="n">
         <v>147.5489424727328</v>
       </c>
       <c r="Q32" t="n">
-        <v>159.4624509671762</v>
+        <v>201.5519328140799</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10434,10 +10434,10 @@
         <v>153.828749580974</v>
       </c>
       <c r="M33" t="n">
-        <v>142.772653367078</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N33" t="n">
-        <v>133.2409716528566</v>
+        <v>50.36043154195549</v>
       </c>
       <c r="O33" t="n">
         <v>151.3947338373213</v>
@@ -10446,7 +10446,7 @@
         <v>74.5170305241549</v>
       </c>
       <c r="Q33" t="n">
-        <v>100.2360922216349</v>
+        <v>179.7679236411865</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,7 +10510,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
         <v>178.5096609094456</v>
@@ -10589,22 +10589,22 @@
         <v>146.0645877545816</v>
       </c>
       <c r="L35" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M35" t="n">
-        <v>128.1622291178006</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N35" t="n">
-        <v>197.6930977356166</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O35" t="n">
-        <v>214.927993750524</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4294825836339</v>
+        <v>189.6384243196365</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>87.56255053286914</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L36" t="n">
-        <v>70.94820947007285</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M36" t="n">
         <v>63.24082194752641</v>
@@ -10677,10 +10677,10 @@
         <v>101.2215325092894</v>
       </c>
       <c r="O36" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P36" t="n">
-        <v>157.397570635056</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q36" t="n">
         <v>183.1166323325361</v>
@@ -10829,7 +10829,7 @@
         <v>226.8120702076072</v>
       </c>
       <c r="M38" t="n">
-        <v>211.0427692287017</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N38" t="n">
         <v>152.2549071973633</v>
@@ -10838,7 +10838,7 @@
         <v>214.927993750524</v>
       </c>
       <c r="P38" t="n">
-        <v>147.5489424727328</v>
+        <v>230.4294825836339</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.42030488819117</v>
       </c>
       <c r="K39" t="n">
-        <v>170.4430906437703</v>
+        <v>87.56255053286914</v>
       </c>
       <c r="L39" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M39" t="n">
-        <v>63.24082194752641</v>
+        <v>142.772653367078</v>
       </c>
       <c r="N39" t="n">
-        <v>50.36043154195549</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O39" t="n">
-        <v>68.51419372642015</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P39" t="n">
-        <v>157.397570635056</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q39" t="n">
-        <v>151.0971931889689</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,19 +11063,19 @@
         <v>146.0645877545816</v>
       </c>
       <c r="L41" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M41" t="n">
-        <v>128.1622291178006</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N41" t="n">
         <v>197.6930977356166</v>
       </c>
       <c r="O41" t="n">
-        <v>214.927993750524</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>87.56255053286914</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L42" t="n">
-        <v>70.94820947007285</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M42" t="n">
-        <v>63.24082194752641</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N42" t="n">
-        <v>101.2215325092894</v>
+        <v>101.2215325092895</v>
       </c>
       <c r="O42" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P42" t="n">
-        <v>157.397570635056</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q42" t="n">
-        <v>183.1166323325361</v>
+        <v>100.2360922216349</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>299.0498299613606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>331.8402549434936</v>
+        <v>414.7207950543947</v>
       </c>
       <c r="H20" t="n">
-        <v>333.5149838897102</v>
+        <v>250.634443778809</v>
       </c>
       <c r="I20" t="n">
         <v>188.040552852714</v>
@@ -24017,7 +24017,7 @@
         <v>30.43313473076819</v>
       </c>
       <c r="S20" t="n">
-        <v>122.7578760324431</v>
+        <v>195.7590557621249</v>
       </c>
       <c r="T20" t="n">
         <v>220.5483964422405</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>266.3604286065118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>313.2367589263719</v>
       </c>
     </row>
     <row r="21">
@@ -24054,16 +24054,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>74.76454034449981</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>62.18867228248274</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0321504965985</v>
+        <v>54.15161038569735</v>
       </c>
       <c r="H21" t="n">
-        <v>109.2282977457949</v>
+        <v>36.22711801611315</v>
       </c>
       <c r="I21" t="n">
         <v>78.67633314568958</v>
@@ -24096,13 +24096,13 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S21" t="n">
-        <v>83.01913172494338</v>
+        <v>165.8996718358445</v>
       </c>
       <c r="T21" t="n">
-        <v>116.0291624145495</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U21" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9208974318556</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>132.7718054737958</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>65.73493290731122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.54050791203011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>94.72876027497365</v>
+        <v>84.84939989375422</v>
       </c>
       <c r="H22" t="n">
-        <v>159.9062953436239</v>
+        <v>77.02575523272273</v>
       </c>
       <c r="I22" t="n">
         <v>147.6003096328796</v>
@@ -24169,10 +24169,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.67557268525354</v>
+        <v>156.8584900646843</v>
       </c>
       <c r="S22" t="n">
         <v>219.4673940256893</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>142.829115278136</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,10 +24206,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>282.3923516601064</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>271.8025015097818</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,10 +24221,10 @@
         <v>414.7207950543947</v>
       </c>
       <c r="H23" t="n">
-        <v>260.5138041600284</v>
+        <v>333.5149838897102</v>
       </c>
       <c r="I23" t="n">
-        <v>188.040552852714</v>
+        <v>105.1600127418128</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,13 +24260,13 @@
         <v>220.5483964422405</v>
       </c>
       <c r="U23" t="n">
-        <v>168.4185574000761</v>
+        <v>178.2979177812956</v>
       </c>
       <c r="V23" t="n">
-        <v>244.8717183592338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,22 +24282,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>83.6526435389662</v>
       </c>
       <c r="C24" t="n">
-        <v>99.70731925863403</v>
+        <v>89.8279588774146</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>74.76454034449981</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>54.15161038569735</v>
+        <v>137.0321504965985</v>
       </c>
       <c r="H24" t="n">
         <v>109.2282977457949</v>
@@ -24336,7 +24336,7 @@
         <v>165.8996718358445</v>
       </c>
       <c r="T24" t="n">
-        <v>116.0291624145495</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U24" t="n">
         <v>225.9208974318556</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>178.6938034312379</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>122.8021556664032</v>
       </c>
     </row>
     <row r="25">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>63.55342253566803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.54050791203011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>84.84939989375422</v>
+        <v>167.7299400046554</v>
       </c>
       <c r="H25" t="n">
-        <v>86.90511561394216</v>
+        <v>159.9062953436239</v>
       </c>
       <c r="I25" t="n">
         <v>147.6003096328796</v>
@@ -24415,22 +24415,22 @@
         <v>219.4673940256893</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U25" t="n">
         <v>286.3047908462834</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>179.1364635941463</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>142.829115278136</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>309.7326619337989</v>
+        <v>299.8533015525794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24458,7 +24458,7 @@
         <v>414.7207950543947</v>
       </c>
       <c r="H26" t="n">
-        <v>250.634443778809</v>
+        <v>260.5138041600284</v>
       </c>
       <c r="I26" t="n">
         <v>188.040552852714</v>
@@ -24491,7 +24491,7 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S26" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T26" t="n">
         <v>220.5483964422405</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>303.3573985451525</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>83.6526435389662</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>89.8279588774146</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>74.76454034449981</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.824608227515583</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8996718358445</v>
+        <v>92.89849210616283</v>
       </c>
       <c r="T27" t="n">
         <v>198.9097025254507</v>
@@ -24579,16 +24579,16 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V27" t="n">
-        <v>149.9200470385241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925763</v>
       </c>
       <c r="Y27" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24604,19 +24604,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.73493290731122</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>72.41986829324954</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7299400046554</v>
+        <v>84.84939989375422</v>
       </c>
       <c r="H28" t="n">
-        <v>159.9062953436239</v>
+        <v>77.02575523272273</v>
       </c>
       <c r="I28" t="n">
         <v>147.6003096328796</v>
@@ -24643,16 +24643,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R28" t="n">
-        <v>82.67557268525354</v>
+        <v>165.5561127961547</v>
       </c>
       <c r="S28" t="n">
-        <v>210.7697712942189</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T28" t="n">
-        <v>143.9496993511295</v>
+        <v>226.8302394620306</v>
       </c>
       <c r="U28" t="n">
         <v>286.3047908462834</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,16 +24683,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>271.8025015097818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>299.0498299613606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>341.719615324713</v>
+        <v>414.7207950543947</v>
       </c>
       <c r="H29" t="n">
         <v>333.5149838897102</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>113.3136748416693</v>
+        <v>30.43313473076819</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5483964422405</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2990975109773</v>
+        <v>178.2979177812956</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24777,7 +24777,7 @@
         <v>109.2282977457949</v>
       </c>
       <c r="I30" t="n">
-        <v>5.675153416007873</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.82578795719726</v>
+        <v>7.824608227515583</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494338</v>
       </c>
       <c r="T30" t="n">
         <v>116.0291624145495</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9208974318556</v>
+        <v>143.0403573209545</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>122.8924450925763</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>96.95144007103616</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24853,7 +24853,7 @@
         <v>167.7299400046554</v>
       </c>
       <c r="H31" t="n">
-        <v>77.02575523272273</v>
+        <v>159.9062953436239</v>
       </c>
       <c r="I31" t="n">
         <v>147.6003096328796</v>
@@ -24892,19 +24892,19 @@
         <v>226.8302394620306</v>
       </c>
       <c r="U31" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V31" t="n">
-        <v>179.1364635941463</v>
+        <v>169.2571032129269</v>
       </c>
       <c r="W31" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>152.7084756593554</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="32">
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>333.8748660120297</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.7207950543947</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>113.3136748416693</v>
+        <v>30.43313473076819</v>
       </c>
       <c r="S32" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T32" t="n">
         <v>137.6678563313394</v>
@@ -24974,13 +24974,13 @@
         <v>251.2990975109773</v>
       </c>
       <c r="V32" t="n">
-        <v>244.8717183592338</v>
+        <v>254.7510787404532</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.6526435389662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25008,13 +25008,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0321504965985</v>
+        <v>54.15161038569735</v>
       </c>
       <c r="H33" t="n">
-        <v>26.34775763489372</v>
+        <v>109.2282977457949</v>
       </c>
       <c r="I33" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25053,13 +25053,13 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V33" t="n">
-        <v>159.7994074197436</v>
+        <v>149.9200470385241</v>
       </c>
       <c r="W33" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>128.5675985085842</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7299400046554</v>
+        <v>94.72876027497365</v>
       </c>
       <c r="H34" t="n">
-        <v>159.9062953436239</v>
+        <v>77.02575523272273</v>
       </c>
       <c r="I34" t="n">
-        <v>147.6003096328796</v>
+        <v>64.71976952197846</v>
       </c>
       <c r="J34" t="n">
         <v>74.90369780277223</v>
@@ -25126,13 +25126,13 @@
         <v>219.4673940256893</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8290597323489</v>
+        <v>226.8302394620306</v>
       </c>
       <c r="U34" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V34" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>203.6424582256899</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>271.8025015097818</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>30.43313473076819</v>
+        <v>40.31249511198764</v>
       </c>
       <c r="S35" t="n">
-        <v>112.8785156512237</v>
+        <v>195.7590557621249</v>
       </c>
       <c r="T35" t="n">
         <v>137.6678563313394</v>
       </c>
       <c r="U35" t="n">
-        <v>178.2979177812956</v>
+        <v>168.4185574000761</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25242,7 +25242,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>67.86382569849061</v>
+        <v>62.18867228248274</v>
       </c>
       <c r="G36" t="n">
         <v>54.15161038569735</v>
@@ -25251,7 +25251,7 @@
         <v>26.34775763489372</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5.675153416007873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>94.24564136894612</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,10 +25330,10 @@
         <v>159.9062953436239</v>
       </c>
       <c r="I37" t="n">
-        <v>147.6003096328796</v>
+        <v>64.71976952197846</v>
       </c>
       <c r="J37" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.6424582256899</v>
+        <v>205.5449762987804</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25391,7 @@
         <v>299.8533015525794</v>
       </c>
       <c r="C38" t="n">
-        <v>292.2717120413258</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25439,7 +25439,7 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S38" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T38" t="n">
         <v>220.5483964422405</v>
@@ -25448,7 +25448,7 @@
         <v>251.2990975109773</v>
       </c>
       <c r="V38" t="n">
-        <v>244.8717183592338</v>
+        <v>254.7510787404532</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25479,13 +25479,13 @@
         <v>74.76454034449981</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>62.18867228248274</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0321504965985</v>
+        <v>54.15161038569735</v>
       </c>
       <c r="H39" t="n">
-        <v>26.34775763489372</v>
+        <v>109.2282977457949</v>
       </c>
       <c r="I39" t="n">
         <v>78.67633314568958</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.824608227515583</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S39" t="n">
         <v>165.8996718358445</v>
@@ -25527,7 +25527,7 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V39" t="n">
-        <v>149.9200470385241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>132.6815160476227</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.7234252914608</v>
+        <v>62.54050791203011</v>
       </c>
       <c r="G40" t="n">
         <v>167.7299400046554</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R40" t="n">
-        <v>82.67557268525354</v>
+        <v>92.554933066473</v>
       </c>
       <c r="S40" t="n">
         <v>219.4673940256893</v>
@@ -25676,19 +25676,19 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7590557621249</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T41" t="n">
-        <v>147.5472167125588</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U41" t="n">
         <v>168.4185574000761</v>
       </c>
       <c r="V41" t="n">
-        <v>244.8717183592338</v>
+        <v>254.7510787404532</v>
       </c>
       <c r="W41" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.6526435389662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>89.8279588774146</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>74.44388583495704</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.82578795719726</v>
+        <v>7.824608227515583</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494338</v>
       </c>
       <c r="T42" t="n">
         <v>116.0291624145495</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>122.8021556664032</v>
       </c>
     </row>
     <row r="43">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>375982.2876824871</v>
+        <v>375982.2876824872</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>375982.287682487</v>
+        <v>375982.2876824871</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>375982.2876824872</v>
+        <v>375982.2876824871</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>375982.2876824873</v>
+        <v>375982.287682487</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>375982.287682487</v>
+        <v>375982.2876824872</v>
       </c>
     </row>
     <row r="13">
@@ -26317,7 +26317,7 @@
         <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
         <v>136332.7436254831</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>45592.83068554265</v>
+        <v>45102.20598419198</v>
       </c>
       <c r="F4" t="n">
-        <v>45592.83068554265</v>
+        <v>45102.20598419198</v>
       </c>
       <c r="G4" t="n">
-        <v>45592.83068554265</v>
+        <v>45102.20598419198</v>
       </c>
       <c r="H4" t="n">
-        <v>61405.92232981906</v>
+        <v>60745.90625577023</v>
       </c>
       <c r="I4" t="n">
-        <v>61405.92232981906</v>
+        <v>60745.90625577022</v>
       </c>
       <c r="J4" t="n">
-        <v>61405.92232981906</v>
+        <v>60745.90625577022</v>
       </c>
       <c r="K4" t="n">
-        <v>61405.92232981906</v>
+        <v>60745.90625577022</v>
       </c>
       <c r="L4" t="n">
-        <v>61405.92232981905</v>
+        <v>60745.90625577023</v>
       </c>
       <c r="M4" t="n">
-        <v>61405.92232981906</v>
+        <v>60745.90625577022</v>
       </c>
       <c r="N4" t="n">
-        <v>61405.92232981905</v>
+        <v>60745.90625577023</v>
       </c>
       <c r="O4" t="n">
-        <v>61405.92232981906</v>
+        <v>60745.90625577022</v>
       </c>
       <c r="P4" t="n">
-        <v>45592.83068554265</v>
+        <v>45102.20598419198</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42405.64750460044</v>
+        <v>43165.80461726402</v>
       </c>
       <c r="C6" t="n">
-        <v>42405.64750460038</v>
+        <v>43165.80461726413</v>
       </c>
       <c r="D6" t="n">
-        <v>42405.64750460062</v>
+        <v>43165.80461726413</v>
       </c>
       <c r="E6" t="n">
-        <v>-28714.97733709926</v>
+        <v>-28224.35263574857</v>
       </c>
       <c r="F6" t="n">
-        <v>87584.18446096079</v>
+        <v>88074.80916231147</v>
       </c>
       <c r="G6" t="n">
-        <v>87584.18446096079</v>
+        <v>88074.80916231147</v>
       </c>
       <c r="H6" t="n">
-        <v>72545.94961662436</v>
+        <v>73205.9656906732</v>
       </c>
       <c r="I6" t="n">
-        <v>94907.86526340645</v>
+        <v>95567.88133745533</v>
       </c>
       <c r="J6" t="n">
-        <v>94907.86526340648</v>
+        <v>95567.88133745533</v>
       </c>
       <c r="K6" t="n">
-        <v>94907.86526340645</v>
+        <v>95567.88133745533</v>
       </c>
       <c r="L6" t="n">
-        <v>94907.86526340652</v>
+        <v>95567.88133745534</v>
       </c>
       <c r="M6" t="n">
-        <v>94907.86526340648</v>
+        <v>95567.8813374553</v>
       </c>
       <c r="N6" t="n">
-        <v>94907.86526340646</v>
+        <v>95567.88133745531</v>
       </c>
       <c r="O6" t="n">
-        <v>94907.86526340645</v>
+        <v>95567.8813374553</v>
       </c>
       <c r="P6" t="n">
-        <v>87584.18446096079</v>
+        <v>88074.80916231147</v>
       </c>
     </row>
   </sheetData>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>37.44234957264789</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>82.88054011090114</v>
       </c>
       <c r="O20" t="n">
-        <v>82.88054011090114</v>
+        <v>42.08948184690371</v>
       </c>
       <c r="P20" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>28.67073045221766</v>
       </c>
       <c r="K21" t="n">
-        <v>79.53183141955158</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O21" t="n">
         <v>82.88054011090114</v>
@@ -36218,7 +36218,7 @@
         <v>82.88054011090114</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>37.44234957264789</v>
       </c>
       <c r="K23" t="n">
+        <v>72.1174822650763</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="L23" t="n">
+      <c r="O23" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="M23" t="n">
-        <v>72.11748226507632</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>50.86110096733393</v>
+      </c>
+      <c r="N24" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>50.86110096733393</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>82.88054011090114</v>
@@ -36595,25 +36595,25 @@
         <v>37.44234957264789</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L26" t="n">
-        <v>42.08948184690369</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M26" t="n">
-        <v>82.88054011090114</v>
+        <v>72.11748226507632</v>
       </c>
       <c r="N26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>52.85253969272854</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>28.67073045221766</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L27" t="n">
         <v>82.88054011090114</v>
       </c>
       <c r="M27" t="n">
+        <v>50.86110096733393</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="N27" t="n">
-        <v>82.88054011090114</v>
-      </c>
-      <c r="O27" t="n">
-        <v>79.53183141955158</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>37.44234957264789</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N29" t="n">
         <v>82.88054011090114</v>
       </c>
       <c r="O29" t="n">
-        <v>82.88054011090114</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="P29" t="n">
-        <v>72.11748226507632</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.85253969272854</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>28.67073045221766</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>82.88054011090114</v>
       </c>
       <c r="N30" t="n">
-        <v>79.53183141955158</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88054011090114</v>
+        <v>50.86110096733396</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>82.88054011090114</v>
@@ -37081,13 +37081,13 @@
         <v>82.88054011090114</v>
       </c>
       <c r="O32" t="n">
+        <v>82.88054011090114</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>42.08948184690371</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>82.88054011090114</v>
       </c>
       <c r="M33" t="n">
-        <v>79.53183141955158</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N33" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>82.88054011090114</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>8.058534916003335</v>
       </c>
       <c r="L34" t="n">
-        <v>66.39945791577836</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M34" t="n">
         <v>80.50298221304118</v>
@@ -37309,22 +37309,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N35" t="n">
-        <v>72.1174822650763</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O35" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>82.88054011090114</v>
+        <v>42.08948184690371</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.85253969272854</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>28.67073045221766</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>50.86110096733393</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>82.88054011090114</v>
@@ -37549,7 +37549,7 @@
         <v>82.88054011090114</v>
       </c>
       <c r="M38" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>26.67929172682305</v>
@@ -37558,7 +37558,7 @@
         <v>82.88054011090114</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q38" t="n">
         <v>52.85253969272854</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.67073045221766</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>79.53183141955158</v>
+      </c>
+      <c r="N39" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="L39" t="n">
+      <c r="O39" t="n">
         <v>82.88054011090114</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>82.88054011090114</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>50.86110096733396</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N41" t="n">
-        <v>72.1174822650763</v>
+        <v>72.11748226507632</v>
       </c>
       <c r="O41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>52.85253969272854</v>
@@ -37859,25 +37859,25 @@
         <v>28.67073045221766</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N42" t="n">
-        <v>50.86110096733393</v>
+        <v>50.86110096733396</v>
       </c>
       <c r="O42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.88054011090114</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>551180.60631346</v>
+        <v>470815.5816315943</v>
       </c>
     </row>
     <row r="7">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S23" t="n">
-        <v>73.73075715809446</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C24" t="n">
-        <v>73.73075715809449</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T24" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X25" t="n">
-        <v>73.73075715809446</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="E26" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F26" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>73.73075715809446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="V27" t="n">
-        <v>73.73075715809446</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.70885235932616</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>9.727356832651232</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.00340032544321</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2806,61 +2806,61 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>73.73075715809455</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>73.73075715809458</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F30" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.87928562742989</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2949,23 +2949,23 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="D31" t="n">
-        <v>73.73075715809455</v>
-      </c>
-      <c r="E31" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="T32" t="n">
+      <c r="Y32" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="U32" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>73.73075715809455</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>76.87928562742992</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.56032388999088</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S33" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="T33" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>76.87928562742989</v>
       </c>
     </row>
     <row r="34">
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>83.70885235932626</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>83.70885235932626</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="T35" t="n">
+      <c r="W35" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="U35" t="n">
+      <c r="X35" t="n">
         <v>73.73075715809455</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,19 +3353,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="I36" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3438,61 +3438,61 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>73.73075715809458</v>
+      </c>
+      <c r="S37" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="H37" t="n">
+      <c r="T37" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="I37" t="n">
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>73.73075715809458</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>73.73075715809458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>76.87928562742989</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>73.73075715809458</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>9.727356832651365</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V40" t="n">
-        <v>83.70885235932626</v>
+        <v>9.727356832651365</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>83.70885235932626</v>
       </c>
       <c r="U41" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3833,61 +3833,61 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>76.87928562742992</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>80.56032388999088</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
+      <c r="W42" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
     </row>
     <row r="43">
@@ -3912,44 +3912,44 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>82.78933896946535</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>64.00340032544321</v>
+      </c>
+      <c r="R43" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="I43" t="n">
+      <c r="S43" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="J43" t="n">
-        <v>74.65027054795544</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>9.727356832651365</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>73.73075715809455</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,58 +4073,58 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="W45" t="n">
-        <v>73.73075715809458</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>9.727356832651365</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4179,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.73075715809458</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>175.8055008338495</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="C23" t="n">
-        <v>91.25110451129777</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="D23" t="n">
-        <v>91.25110451129777</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E23" t="n">
-        <v>91.25110451129777</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F23" t="n">
-        <v>6.696708188746093</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G23" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H23" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I23" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J23" t="n">
         <v>44.4360887082459</v>
       </c>
       <c r="K23" t="n">
-        <v>127.3078525439788</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L23" t="n">
-        <v>198.785309139777</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="M23" t="n">
-        <v>198.785309139777</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="N23" t="n">
-        <v>198.785309139777</v>
+        <v>198.7853091397774</v>
       </c>
       <c r="O23" t="n">
-        <v>281.6570729755099</v>
+        <v>198.7853091397774</v>
       </c>
       <c r="P23" t="n">
-        <v>281.6570729755099</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q23" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R23" t="n">
-        <v>250.281013114753</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S23" t="n">
-        <v>175.8055008338495</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="T23" t="n">
-        <v>175.8055008338495</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="U23" t="n">
-        <v>175.8055008338495</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="V23" t="n">
-        <v>175.8055008338495</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="W23" t="n">
-        <v>175.8055008338495</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="X23" t="n">
-        <v>175.8055008338495</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="Y23" t="n">
-        <v>175.8055008338495</v>
+        <v>81.17222046964969</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>81.17222046964962</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C24" t="n">
-        <v>6.696708188746093</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D24" t="n">
-        <v>6.696708188746093</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E24" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F24" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G24" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H24" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I24" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J24" t="n">
-        <v>6.696708188746093</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="K24" t="n">
-        <v>6.696708188746093</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L24" t="n">
-        <v>89.56847202447898</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="M24" t="n">
-        <v>172.4402358602119</v>
+        <v>284.0959365097168</v>
       </c>
       <c r="N24" t="n">
-        <v>255.3119996959448</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O24" t="n">
-        <v>255.3119996959448</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P24" t="n">
-        <v>255.3119996959448</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q24" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R24" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S24" t="n">
-        <v>334.8354094373046</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T24" t="n">
-        <v>250.281013114753</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U24" t="n">
-        <v>165.7266167922013</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V24" t="n">
-        <v>165.7266167922013</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W24" t="n">
-        <v>165.7266167922013</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X24" t="n">
-        <v>81.17222046964962</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y24" t="n">
-        <v>81.17222046964962</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.25110451129777</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="C25" t="n">
-        <v>6.696708188746093</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="D25" t="n">
-        <v>6.696708188746093</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E25" t="n">
-        <v>6.696708188746093</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F25" t="n">
-        <v>6.696708188746093</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G25" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H25" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I25" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J25" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08695199673547</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L25" t="n">
-        <v>81.35001001408395</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M25" t="n">
         <v>161.6042370215895</v>
       </c>
       <c r="N25" t="n">
-        <v>244.4760008573222</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O25" t="n">
-        <v>305.844628747805</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P25" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R25" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S25" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T25" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V25" t="n">
-        <v>334.8354094373046</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W25" t="n">
-        <v>334.8354094373046</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X25" t="n">
-        <v>260.3598971564011</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="Y25" t="n">
-        <v>175.8055008338495</v>
+        <v>81.17222046964969</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>175.8055008338495</v>
+        <v>334.835409437305</v>
       </c>
       <c r="C26" t="n">
-        <v>175.8055008338495</v>
+        <v>334.835409437305</v>
       </c>
       <c r="D26" t="n">
-        <v>175.8055008338495</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="E26" t="n">
-        <v>91.25110451129777</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F26" t="n">
-        <v>6.696708188746093</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G26" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H26" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I26" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J26" t="n">
         <v>44.4360887082459</v>
       </c>
       <c r="K26" t="n">
-        <v>44.4360887082459</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L26" t="n">
-        <v>44.4360887082459</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="M26" t="n">
-        <v>115.9135453040441</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="N26" t="n">
-        <v>115.9135453040441</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="O26" t="n">
-        <v>198.785309139777</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P26" t="n">
-        <v>281.6570729755099</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q26" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R26" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S26" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T26" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U26" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V26" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W26" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X26" t="n">
-        <v>250.281013114753</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y26" t="n">
-        <v>175.8055008338495</v>
+        <v>334.835409437305</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>260.3598971564011</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C27" t="n">
-        <v>260.3598971564011</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D27" t="n">
-        <v>260.3598971564011</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E27" t="n">
-        <v>175.8055008338495</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F27" t="n">
-        <v>91.25110451129777</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G27" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H27" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I27" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J27" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K27" t="n">
-        <v>6.696708188746093</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L27" t="n">
-        <v>6.696708188746093</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M27" t="n">
-        <v>6.696708188746093</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N27" t="n">
-        <v>86.22011793010593</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="O27" t="n">
-        <v>169.0918817658388</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="P27" t="n">
-        <v>251.9636456015717</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="Q27" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R27" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S27" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T27" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U27" t="n">
-        <v>334.8354094373046</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V27" t="n">
-        <v>260.3598971564011</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W27" t="n">
-        <v>260.3598971564011</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X27" t="n">
-        <v>260.3598971564011</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y27" t="n">
-        <v>260.3598971564011</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.0767174735717</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C28" t="n">
-        <v>101.0767174735717</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D28" t="n">
-        <v>101.0767174735717</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E28" t="n">
-        <v>101.0767174735717</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F28" t="n">
-        <v>101.0767174735717</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G28" t="n">
-        <v>101.0767174735717</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="H28" t="n">
-        <v>16.52232115102007</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I28" t="n">
-        <v>16.52232115102007</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J28" t="n">
-        <v>6.696708188746093</v>
+        <v>6.696708188746134</v>
       </c>
       <c r="K28" t="n">
-        <v>15.08695199673519</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L28" t="n">
-        <v>81.35001001408368</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M28" t="n">
-        <v>161.6042370215893</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N28" t="n">
-        <v>244.4760008573222</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O28" t="n">
-        <v>305.844628747805</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P28" t="n">
-        <v>334.8354094373046</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.1855101186751</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R28" t="n">
-        <v>270.1855101186751</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S28" t="n">
-        <v>185.6311137961234</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T28" t="n">
-        <v>185.6311137961234</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U28" t="n">
-        <v>101.0767174735717</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V28" t="n">
-        <v>101.0767174735717</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W28" t="n">
-        <v>101.0767174735717</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X28" t="n">
-        <v>101.0767174735717</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.0767174735717</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C29" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D29" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E29" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F29" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G29" t="n">
         <v>6.696708188746101</v>
@@ -6463,22 +6463,22 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J29" t="n">
-        <v>44.43608870824591</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K29" t="n">
-        <v>127.3078525439789</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L29" t="n">
-        <v>169.091881765839</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M29" t="n">
-        <v>169.091881765839</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N29" t="n">
-        <v>251.963645601572</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="O29" t="n">
-        <v>334.835409437305</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="P29" t="n">
         <v>334.835409437305</v>
@@ -6490,25 +6490,25 @@
         <v>334.835409437305</v>
       </c>
       <c r="S29" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T29" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U29" t="n">
-        <v>250.2810131147533</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="V29" t="n">
-        <v>250.2810131147533</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W29" t="n">
-        <v>175.8055008338497</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X29" t="n">
-        <v>175.8055008338497</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y29" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="C30" t="n">
-        <v>334.835409437305</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="D30" t="n">
-        <v>334.835409437305</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="E30" t="n">
-        <v>260.3598971564014</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="F30" t="n">
-        <v>175.8055008338497</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="G30" t="n">
-        <v>91.25110451129788</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="H30" t="n">
-        <v>6.696708188746101</v>
+        <v>84.35255225685711</v>
       </c>
       <c r="I30" t="n">
         <v>6.696708188746101</v>
       </c>
       <c r="J30" t="n">
-        <v>35.48064500251785</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K30" t="n">
-        <v>118.3524088382508</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L30" t="n">
-        <v>201.2241726739838</v>
+        <v>169.091881765839</v>
       </c>
       <c r="M30" t="n">
         <v>251.963645601572</v>
       </c>
       <c r="N30" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O30" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P30" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q30" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R30" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S30" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="T30" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="U30" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="V30" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="W30" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="X30" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="Y30" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>250.2810131147533</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C31" t="n">
-        <v>165.7266167922015</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D31" t="n">
         <v>91.25110451129788</v>
       </c>
       <c r="E31" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F31" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G31" t="n">
         <v>6.696708188746101</v>
@@ -6624,16 +6624,16 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K31" t="n">
-        <v>15.08695199673548</v>
+        <v>15.08695199673547</v>
       </c>
       <c r="L31" t="n">
-        <v>81.35001001408399</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M31" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N31" t="n">
-        <v>244.4760008573226</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O31" t="n">
         <v>305.8446287478054</v>
@@ -6645,28 +6645,28 @@
         <v>334.835409437305</v>
       </c>
       <c r="R31" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S31" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T31" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U31" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V31" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="W31" t="n">
-        <v>250.2810131147533</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X31" t="n">
-        <v>250.2810131147533</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y31" t="n">
-        <v>250.2810131147533</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C32" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D32" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E32" t="n">
         <v>6.696708188746101</v>
@@ -6700,52 +6700,52 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J32" t="n">
-        <v>44.43608870824591</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K32" t="n">
-        <v>44.43608870824591</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L32" t="n">
-        <v>127.3078525439789</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M32" t="n">
-        <v>210.1796163797119</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N32" t="n">
-        <v>210.1796163797119</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="O32" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P32" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q32" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R32" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S32" t="n">
-        <v>250.2810131147533</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T32" t="n">
-        <v>165.7266167922015</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U32" t="n">
-        <v>81.17222046964969</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V32" t="n">
-        <v>81.17222046964969</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="W32" t="n">
-        <v>81.17222046964969</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="X32" t="n">
-        <v>6.696708188746101</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C33" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D33" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E33" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F33" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G33" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H33" t="n">
         <v>6.696708188746101</v>
@@ -6779,13 +6779,13 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J33" t="n">
-        <v>35.48064500251785</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K33" t="n">
-        <v>118.3524088382508</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L33" t="n">
-        <v>169.091881765839</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M33" t="n">
         <v>169.091881765839</v>
@@ -6794,10 +6794,10 @@
         <v>169.091881765839</v>
       </c>
       <c r="O33" t="n">
-        <v>169.091881765839</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P33" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q33" t="n">
         <v>334.835409437305</v>
@@ -6809,22 +6809,22 @@
         <v>168.9069485794089</v>
       </c>
       <c r="T33" t="n">
-        <v>84.35255225685714</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="U33" t="n">
-        <v>84.35255225685714</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="V33" t="n">
-        <v>84.35255225685714</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="W33" t="n">
-        <v>84.35255225685714</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="X33" t="n">
-        <v>84.35255225685714</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="Y33" t="n">
-        <v>84.35255225685714</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.17222046964969</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C34" t="n">
-        <v>81.17222046964969</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D34" t="n">
-        <v>81.17222046964969</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E34" t="n">
-        <v>81.17222046964969</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F34" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G34" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H34" t="n">
         <v>6.696708188746101</v>
@@ -6861,7 +6861,7 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K34" t="n">
-        <v>15.08695199673548</v>
+        <v>15.08695199673547</v>
       </c>
       <c r="L34" t="n">
         <v>81.35001001408396</v>
@@ -6870,7 +6870,7 @@
         <v>161.6042370215895</v>
       </c>
       <c r="N34" t="n">
-        <v>244.4760008573226</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O34" t="n">
         <v>305.8446287478054</v>
@@ -6882,28 +6882,28 @@
         <v>334.835409437305</v>
       </c>
       <c r="R34" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S34" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T34" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U34" t="n">
-        <v>250.2810131147533</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V34" t="n">
-        <v>165.7266167922015</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W34" t="n">
-        <v>165.7266167922015</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X34" t="n">
-        <v>81.17222046964969</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.17222046964969</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J35" t="n">
-        <v>44.43608870824591</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K35" t="n">
-        <v>127.3078525439789</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L35" t="n">
-        <v>210.1796163797119</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M35" t="n">
-        <v>293.0513802154449</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N35" t="n">
-        <v>334.835409437305</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O35" t="n">
         <v>334.835409437305</v>
@@ -6964,19 +6964,19 @@
         <v>250.2810131147533</v>
       </c>
       <c r="S35" t="n">
+        <v>250.2810131147533</v>
+      </c>
+      <c r="T35" t="n">
+        <v>250.2810131147533</v>
+      </c>
+      <c r="U35" t="n">
+        <v>250.2810131147533</v>
+      </c>
+      <c r="V35" t="n">
         <v>165.7266167922015</v>
       </c>
-      <c r="T35" t="n">
+      <c r="W35" t="n">
         <v>81.17222046964969</v>
-      </c>
-      <c r="U35" t="n">
-        <v>6.696708188746101</v>
-      </c>
-      <c r="V35" t="n">
-        <v>6.696708188746101</v>
-      </c>
-      <c r="W35" t="n">
-        <v>6.696708188746101</v>
       </c>
       <c r="X35" t="n">
         <v>6.696708188746101</v>
@@ -7001,37 +7001,37 @@
         <v>250.2810131147533</v>
       </c>
       <c r="E36" t="n">
-        <v>250.2810131147533</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F36" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G36" t="n">
-        <v>165.7266167922015</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H36" t="n">
-        <v>81.17222046964969</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I36" t="n">
         <v>6.696708188746101</v>
       </c>
       <c r="J36" t="n">
-        <v>35.48064500251785</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="K36" t="n">
-        <v>35.48064500251785</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="L36" t="n">
-        <v>35.48064500251785</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="M36" t="n">
-        <v>86.22011793010606</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="N36" t="n">
         <v>169.091881765839</v>
       </c>
       <c r="O36" t="n">
-        <v>251.963645601572</v>
+        <v>169.091881765839</v>
       </c>
       <c r="P36" t="n">
         <v>251.963645601572</v>
@@ -7046,10 +7046,10 @@
         <v>334.835409437305</v>
       </c>
       <c r="T36" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U36" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V36" t="n">
         <v>250.2810131147533</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C37" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D37" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E37" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F37" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G37" t="n">
-        <v>175.8055008338497</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H37" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I37" t="n">
         <v>6.696708188746101</v>
@@ -7098,16 +7098,16 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K37" t="n">
-        <v>15.08695199673548</v>
+        <v>15.08695199673547</v>
       </c>
       <c r="L37" t="n">
         <v>81.35001001408396</v>
       </c>
       <c r="M37" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N37" t="n">
-        <v>244.4760008573226</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O37" t="n">
         <v>305.8446287478054</v>
@@ -7119,28 +7119,28 @@
         <v>334.835409437305</v>
       </c>
       <c r="R37" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S37" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T37" t="n">
-        <v>334.835409437305</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="U37" t="n">
-        <v>334.835409437305</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="V37" t="n">
-        <v>334.835409437305</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W37" t="n">
-        <v>260.3598971564014</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X37" t="n">
-        <v>260.3598971564014</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>260.3598971564014</v>
+      </c>
+      <c r="C38" t="n">
+        <v>260.3598971564014</v>
+      </c>
+      <c r="D38" t="n">
+        <v>260.3598971564014</v>
+      </c>
+      <c r="E38" t="n">
         <v>175.8055008338497</v>
-      </c>
-      <c r="C38" t="n">
-        <v>91.25110451129788</v>
-      </c>
-      <c r="D38" t="n">
-        <v>91.25110451129788</v>
-      </c>
-      <c r="E38" t="n">
-        <v>91.25110451129788</v>
       </c>
       <c r="F38" t="n">
         <v>91.25110451129788</v>
       </c>
       <c r="G38" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H38" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I38" t="n">
         <v>6.696708188746101</v>
       </c>
       <c r="J38" t="n">
-        <v>6.696708188746101</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="K38" t="n">
-        <v>6.696708188746101</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L38" t="n">
-        <v>89.56847202447909</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="M38" t="n">
-        <v>172.4402358602121</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N38" t="n">
-        <v>198.7853091397773</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O38" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P38" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q38" t="n">
         <v>334.835409437305</v>
@@ -7213,10 +7213,10 @@
         <v>334.835409437305</v>
       </c>
       <c r="W38" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="X38" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="Y38" t="n">
         <v>260.3598971564014</v>
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>260.3598971564014</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C39" t="n">
-        <v>260.3598971564014</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D39" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E39" t="n">
-        <v>175.8055008338497</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F39" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G39" t="n">
         <v>6.696708188746101</v>
@@ -7253,19 +7253,19 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J39" t="n">
-        <v>35.48064500251785</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="K39" t="n">
-        <v>35.48064500251785</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L39" t="n">
-        <v>35.48064500251785</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="M39" t="n">
-        <v>86.22011793010606</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N39" t="n">
-        <v>169.091881765839</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O39" t="n">
         <v>251.963645601572</v>
@@ -7277,28 +7277,28 @@
         <v>334.835409437305</v>
       </c>
       <c r="R39" t="n">
-        <v>334.835409437305</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S39" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T39" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U39" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V39" t="n">
-        <v>260.3598971564014</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W39" t="n">
-        <v>260.3598971564014</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X39" t="n">
-        <v>260.3598971564014</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y39" t="n">
-        <v>260.3598971564014</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J40" t="n">
         <v>6.696708188746101</v>
       </c>
       <c r="K40" t="n">
-        <v>15.08695199673545</v>
+        <v>15.08695199673547</v>
       </c>
       <c r="L40" t="n">
-        <v>81.35001001408395</v>
+        <v>81.35001001408396</v>
       </c>
       <c r="M40" t="n">
-        <v>161.6042370215895</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N40" t="n">
-        <v>244.4760008573225</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O40" t="n">
         <v>305.8446287478054</v>
@@ -7356,7 +7356,7 @@
         <v>270.1855101186756</v>
       </c>
       <c r="R40" t="n">
-        <v>185.6311137961238</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="S40" t="n">
         <v>185.6311137961238</v>
@@ -7365,19 +7365,19 @@
         <v>101.076717473572</v>
       </c>
       <c r="U40" t="n">
-        <v>101.076717473572</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="V40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="W40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.52232115102021</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C41" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D41" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E41" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F41" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G41" t="n">
         <v>6.696708188746101</v>
@@ -7411,52 +7411,52 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J41" t="n">
-        <v>44.43608870824591</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K41" t="n">
-        <v>44.43608870824591</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L41" t="n">
-        <v>44.43608870824591</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M41" t="n">
-        <v>127.3078525439789</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N41" t="n">
-        <v>210.1796163797119</v>
+        <v>255.3119996959451</v>
       </c>
       <c r="O41" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P41" t="n">
-        <v>281.6570729755103</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q41" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R41" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S41" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T41" t="n">
-        <v>250.2810131147533</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U41" t="n">
         <v>165.7266167922015</v>
       </c>
       <c r="V41" t="n">
-        <v>81.17222046964969</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W41" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X41" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.696708188746101</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>168.9069485794089</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C42" t="n">
-        <v>168.9069485794089</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D42" t="n">
-        <v>168.9069485794089</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E42" t="n">
-        <v>168.9069485794089</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F42" t="n">
-        <v>168.9069485794089</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G42" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H42" t="n">
         <v>6.696708188746101</v>
@@ -7493,49 +7493,49 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K42" t="n">
-        <v>6.696708188746101</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L42" t="n">
-        <v>6.696708188746101</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M42" t="n">
-        <v>89.56847202447909</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N42" t="n">
-        <v>172.4402358602121</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O42" t="n">
-        <v>255.3119996959451</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P42" t="n">
-        <v>334.835409437305</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q42" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R42" t="n">
-        <v>253.4613449019607</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S42" t="n">
-        <v>253.4613449019607</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T42" t="n">
-        <v>168.9069485794089</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U42" t="n">
-        <v>168.9069485794089</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V42" t="n">
-        <v>168.9069485794089</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W42" t="n">
-        <v>168.9069485794089</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X42" t="n">
-        <v>168.9069485794089</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="Y42" t="n">
-        <v>168.9069485794089</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C43" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D43" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E43" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F43" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2098145186532</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H43" t="n">
-        <v>166.6554181961014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I43" t="n">
-        <v>82.10102187354958</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J43" t="n">
         <v>6.696708188746101</v>
       </c>
       <c r="K43" t="n">
-        <v>15.08695199673548</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L43" t="n">
-        <v>81.35001001408396</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M43" t="n">
-        <v>161.6042370215895</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N43" t="n">
         <v>244.4760008573226</v>
@@ -7590,31 +7590,31 @@
         <v>334.835409437305</v>
       </c>
       <c r="Q43" t="n">
-        <v>334.835409437305</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="R43" t="n">
-        <v>334.835409437305</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="S43" t="n">
-        <v>334.835409437305</v>
+        <v>101.076717473572</v>
       </c>
       <c r="T43" t="n">
-        <v>334.835409437305</v>
+        <v>101.076717473572</v>
       </c>
       <c r="U43" t="n">
-        <v>334.835409437305</v>
+        <v>101.076717473572</v>
       </c>
       <c r="V43" t="n">
-        <v>334.835409437305</v>
+        <v>101.076717473572</v>
       </c>
       <c r="W43" t="n">
-        <v>334.835409437305</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="X43" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y43" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C44" t="n">
-        <v>81.17222046964969</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D44" t="n">
-        <v>81.17222046964969</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E44" t="n">
-        <v>81.17222046964969</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F44" t="n">
-        <v>81.17222046964969</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G44" t="n">
-        <v>81.17222046964969</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H44" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="I44" t="n">
         <v>6.696708188746101</v>
       </c>
       <c r="J44" t="n">
-        <v>44.43608870824591</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="K44" t="n">
-        <v>127.3078525439789</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="L44" t="n">
-        <v>169.091881765839</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="M44" t="n">
-        <v>169.091881765839</v>
+        <v>44.4360887082459</v>
       </c>
       <c r="N44" t="n">
-        <v>251.963645601572</v>
+        <v>115.9135453040444</v>
       </c>
       <c r="O44" t="n">
-        <v>334.835409437305</v>
+        <v>198.7853091397774</v>
       </c>
       <c r="P44" t="n">
-        <v>334.835409437305</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q44" t="n">
         <v>334.835409437305</v>
       </c>
       <c r="R44" t="n">
-        <v>334.835409437305</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="S44" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T44" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U44" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V44" t="n">
-        <v>334.835409437305</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W44" t="n">
-        <v>250.2810131147533</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="X44" t="n">
-        <v>250.2810131147533</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.7266167922015</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C45" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D45" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E45" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F45" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G45" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H45" t="n">
         <v>6.696708188746101</v>
@@ -7727,25 +7727,25 @@
         <v>6.696708188746101</v>
       </c>
       <c r="J45" t="n">
-        <v>6.696708188746101</v>
+        <v>35.48064500251784</v>
       </c>
       <c r="K45" t="n">
-        <v>6.696708188746101</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L45" t="n">
-        <v>6.696708188746101</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="M45" t="n">
-        <v>86.22011793010606</v>
+        <v>284.0959365097168</v>
       </c>
       <c r="N45" t="n">
-        <v>169.091881765839</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O45" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P45" t="n">
-        <v>251.963645601572</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q45" t="n">
         <v>334.835409437305</v>
@@ -7754,25 +7754,25 @@
         <v>334.835409437305</v>
       </c>
       <c r="S45" t="n">
-        <v>334.835409437305</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T45" t="n">
-        <v>334.835409437305</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="U45" t="n">
-        <v>334.835409437305</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="V45" t="n">
-        <v>334.835409437305</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="W45" t="n">
-        <v>260.3598971564014</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X45" t="n">
-        <v>175.8055008338497</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y45" t="n">
-        <v>91.25110451129788</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.696708188746101</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="C46" t="n">
-        <v>6.696708188746101</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="D46" t="n">
-        <v>6.696708188746101</v>
+        <v>101.076717473572</v>
       </c>
       <c r="E46" t="n">
-        <v>6.696708188746101</v>
+        <v>101.076717473572</v>
       </c>
       <c r="F46" t="n">
-        <v>6.696708188746101</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G46" t="n">
         <v>6.696708188746101</v>
@@ -7809,16 +7809,16 @@
         <v>6.696708188746101</v>
       </c>
       <c r="K46" t="n">
-        <v>15.08695199673548</v>
+        <v>15.08695199673547</v>
       </c>
       <c r="L46" t="n">
         <v>81.35001001408396</v>
       </c>
       <c r="M46" t="n">
-        <v>161.6042370215896</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N46" t="n">
-        <v>244.4760008573226</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O46" t="n">
         <v>305.8446287478054</v>
@@ -7827,31 +7827,31 @@
         <v>334.835409437305</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.835409437305</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="R46" t="n">
-        <v>334.835409437305</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="S46" t="n">
-        <v>260.3598971564014</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="T46" t="n">
-        <v>260.3598971564014</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="U46" t="n">
-        <v>260.3598971564014</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="V46" t="n">
-        <v>260.3598971564014</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="W46" t="n">
-        <v>175.8055008338497</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="X46" t="n">
-        <v>91.25110451129788</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.696708188746101</v>
+        <v>270.1855101186756</v>
       </c>
     </row>
   </sheetData>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.01635169013434</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K12" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L12" t="n">
-        <v>70.01985409800083</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M12" t="n">
-        <v>62.15747501601243</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N12" t="n">
-        <v>49.24841164076372</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O12" t="n">
-        <v>67.49691276755155</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P12" t="n">
         <v>73.70057286958928</v>
@@ -8859,7 +8859,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N13" t="n">
-        <v>87.19087109886837</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O13" t="n">
         <v>101.0531533451928</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.01635169013434</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K15" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L15" t="n">
-        <v>70.01985409800083</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M15" t="n">
-        <v>62.15747501601243</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N15" t="n">
-        <v>49.24841164076372</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O15" t="n">
-        <v>67.49691276755155</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P15" t="n">
         <v>73.70057286958928</v>
@@ -9096,7 +9096,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N16" t="n">
-        <v>87.19087109886837</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O16" t="n">
         <v>101.0531533451928</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.01635169013434</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K18" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L18" t="n">
-        <v>70.01985409800083</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M18" t="n">
-        <v>62.15747501601243</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N18" t="n">
-        <v>49.24841164076372</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O18" t="n">
-        <v>67.49691276755155</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P18" t="n">
         <v>73.70057286958928</v>
@@ -9333,7 +9333,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N19" t="n">
-        <v>87.19087109886837</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O19" t="n">
         <v>101.0531533451928</v>
@@ -9479,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.01635169013434</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K21" t="n">
         <v>86.87213017667128</v>
       </c>
       <c r="L21" t="n">
-        <v>70.01985409800083</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M21" t="n">
-        <v>62.15747501601243</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N21" t="n">
-        <v>49.24841164076372</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O21" t="n">
-        <v>67.49691276755155</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P21" t="n">
         <v>73.70057286958928</v>
@@ -9570,7 +9570,7 @@
         <v>97.44478514428849</v>
       </c>
       <c r="N22" t="n">
-        <v>87.19087109886837</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O22" t="n">
         <v>101.0531533451928</v>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>228.7569389494464</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L23" t="n">
-        <v>214.8699216238771</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M23" t="n">
         <v>126.759057355221</v>
       </c>
       <c r="N23" t="n">
-        <v>124.1497389218713</v>
+        <v>196.3491900287384</v>
       </c>
       <c r="O23" t="n">
-        <v>214.4098912071394</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P23" t="n">
-        <v>146.3998085983305</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.01635169013434</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.87213017667128</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L24" t="n">
-        <v>153.728706457327</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M24" t="n">
-        <v>145.8663273753386</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N24" t="n">
-        <v>132.9572640000899</v>
+        <v>100.5004044969135</v>
       </c>
       <c r="O24" t="n">
-        <v>67.49691276755155</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P24" t="n">
         <v>73.70057286958928</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0169884079139</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9807,7 +9807,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>170.8997234581943</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9877,25 +9877,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>145.0480865901202</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L26" t="n">
         <v>142.6704705170102</v>
       </c>
       <c r="M26" t="n">
-        <v>198.9585084620879</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N26" t="n">
-        <v>124.1497389218713</v>
+        <v>207.8585912811976</v>
       </c>
       <c r="O26" t="n">
-        <v>214.4098912071394</v>
+        <v>172.9071289709044</v>
       </c>
       <c r="P26" t="n">
-        <v>230.1086609576566</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.01635169013434</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K27" t="n">
-        <v>86.87213017667128</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L27" t="n">
-        <v>70.01985409800083</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M27" t="n">
-        <v>62.15747501601243</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N27" t="n">
-        <v>129.5750881471878</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O27" t="n">
-        <v>151.2057651268777</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P27" t="n">
-        <v>157.4094252289154</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q27" t="n">
-        <v>183.399164260816</v>
+        <v>180.016988407914</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,7 +10035,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446523</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10044,7 +10044,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>170.8997234581945</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K29" t="n">
         <v>228.7569389494465</v>
       </c>
       <c r="L29" t="n">
-        <v>184.8765606401013</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M29" t="n">
         <v>126.759057355221</v>
       </c>
       <c r="N29" t="n">
-        <v>207.8585912811975</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O29" t="n">
-        <v>214.4098912071395</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P29" t="n">
-        <v>146.3998085983305</v>
+        <v>226.7264851047547</v>
       </c>
       <c r="Q29" t="n">
         <v>158.5994992843545</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K30" t="n">
         <v>170.5809825359975</v>
       </c>
       <c r="L30" t="n">
-        <v>153.7287064573271</v>
+        <v>150.346530604425</v>
       </c>
       <c r="M30" t="n">
-        <v>113.4094678721621</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N30" t="n">
-        <v>49.24841164076372</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O30" t="n">
-        <v>67.49691276755155</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P30" t="n">
         <v>73.70057286958928</v>
       </c>
       <c r="Q30" t="n">
-        <v>183.3991642608161</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,7 +10275,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K32" t="n">
         <v>145.0480865901202</v>
@@ -10360,16 +10360,16 @@
         <v>210.4679097145473</v>
       </c>
       <c r="N32" t="n">
-        <v>124.1497389218713</v>
+        <v>207.8585912811976</v>
       </c>
       <c r="O32" t="n">
-        <v>202.9004899546804</v>
+        <v>211.0277153542375</v>
       </c>
       <c r="P32" t="n">
         <v>146.3998085983305</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K33" t="n">
         <v>170.5809825359975</v>
       </c>
       <c r="L33" t="n">
-        <v>121.2718469541505</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M33" t="n">
-        <v>62.15747501601243</v>
+        <v>142.4841515224366</v>
       </c>
       <c r="N33" t="n">
-        <v>49.24841164076372</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O33" t="n">
-        <v>67.49691276755155</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P33" t="n">
         <v>157.4094252289156</v>
       </c>
       <c r="Q33" t="n">
-        <v>183.3991642608161</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10518,7 +10518,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>170.8997234581947</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K35" t="n">
-        <v>228.7569389494465</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L35" t="n">
         <v>226.3793228763365</v>
       </c>
       <c r="M35" t="n">
-        <v>210.4679097145473</v>
+        <v>207.0857338616452</v>
       </c>
       <c r="N35" t="n">
-        <v>166.3558290449623</v>
+        <v>207.8585912811976</v>
       </c>
       <c r="O35" t="n">
-        <v>130.7010388478133</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P35" t="n">
         <v>146.3998085983305</v>
@@ -10670,19 +10670,19 @@
         <v>86.87213017667128</v>
       </c>
       <c r="L36" t="n">
-        <v>70.01985409800083</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M36" t="n">
-        <v>113.4094678721621</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N36" t="n">
-        <v>132.95726400009</v>
+        <v>100.5004044969135</v>
       </c>
       <c r="O36" t="n">
-        <v>151.2057651268778</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P36" t="n">
-        <v>73.70057286958928</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q36" t="n">
         <v>183.3991642608161</v>
@@ -10752,7 +10752,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094457</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
         <v>170.8997234581946</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>130.9760287887406</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>145.0480865901202</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L38" t="n">
-        <v>226.3793228763365</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M38" t="n">
-        <v>210.4679097145473</v>
+        <v>168.9651474783121</v>
       </c>
       <c r="N38" t="n">
-        <v>150.7609240527452</v>
+        <v>207.8585912811976</v>
       </c>
       <c r="O38" t="n">
-        <v>214.4098912071395</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P38" t="n">
         <v>146.3998085983305</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>86.87213017667128</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L39" t="n">
-        <v>70.01985409800083</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M39" t="n">
-        <v>113.4094678721621</v>
+        <v>113.4094678721622</v>
       </c>
       <c r="N39" t="n">
-        <v>132.95726400009</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O39" t="n">
-        <v>151.2057651268778</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P39" t="n">
         <v>73.70057286958928</v>
@@ -10989,10 +10989,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094457</v>
       </c>
       <c r="N40" t="n">
-        <v>170.8997234581946</v>
+        <v>170.8997234581947</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K41" t="n">
         <v>145.0480865901202</v>
       </c>
       <c r="L41" t="n">
-        <v>142.6704705170102</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M41" t="n">
         <v>210.4679097145473</v>
       </c>
       <c r="N41" t="n">
-        <v>207.8585912811975</v>
+        <v>207.8585912811976</v>
       </c>
       <c r="O41" t="n">
-        <v>202.9004899546804</v>
+        <v>211.0277153542375</v>
       </c>
       <c r="P41" t="n">
         <v>146.3998085983305</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.01635169013434</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K42" t="n">
-        <v>86.87213017667128</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L42" t="n">
-        <v>70.01985409800083</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M42" t="n">
-        <v>145.8663273753387</v>
+        <v>142.4841515224366</v>
       </c>
       <c r="N42" t="n">
-        <v>132.95726400009</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O42" t="n">
-        <v>151.2057651268778</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P42" t="n">
-        <v>154.0272493760135</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.69031190148982</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
@@ -11299,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>228.7569389494465</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L44" t="n">
-        <v>184.8765606401013</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M44" t="n">
         <v>126.759057355221</v>
       </c>
       <c r="N44" t="n">
-        <v>207.8585912811975</v>
+        <v>196.3491900287384</v>
       </c>
       <c r="O44" t="n">
-        <v>214.4098912071395</v>
+        <v>214.4098912071396</v>
       </c>
       <c r="P44" t="n">
-        <v>146.3998085983305</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.5994992843545</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.01635169013434</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.87213017667128</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L45" t="n">
-        <v>70.01985409800083</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M45" t="n">
-        <v>142.4841515224366</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N45" t="n">
-        <v>132.95726400009</v>
+        <v>100.5004044969135</v>
       </c>
       <c r="O45" t="n">
-        <v>151.2057651268778</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P45" t="n">
         <v>73.70057286958928</v>
       </c>
       <c r="Q45" t="n">
-        <v>183.3991642608161</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11463,7 +11463,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>178.5096609094457</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
         <v>170.8997234581946</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.56032388999088</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S12" t="n">
         <v>165.8202538982478</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.56032388999088</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S15" t="n">
         <v>165.8202538982478</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.56032388999088</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S18" t="n">
         <v>165.8202538982478</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.56032388999088</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S21" t="n">
         <v>165.8202538982478</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>281.5640394116814</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>323.1671933823853</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7128039286263</v>
+        <v>340.9820467705318</v>
       </c>
       <c r="H23" t="n">
         <v>333.4331447729346</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.10284992829426</v>
+        <v>29.10284992829418</v>
       </c>
       <c r="S23" t="n">
-        <v>121.8462008255831</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5134152891894</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U23" t="n">
         <v>251.2984582209158</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>82.82433129054108</v>
       </c>
       <c r="C24" t="n">
-        <v>98.97774183022125</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>73.71430840654421</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>73.93622809607469</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.56032388999088</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8202538982478</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T24" t="n">
-        <v>115.1836163799022</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U24" t="n">
-        <v>142.211763781133</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24350,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>122.0641328441513</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.12312782261114</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>83.53796873930168</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.72635546074</v>
+        <v>93.99559830264545</v>
       </c>
       <c r="H25" t="n">
         <v>159.8744254895399</v>
@@ -24423,16 +24423,16 @@
         <v>286.3045953257062</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X25" t="n">
-        <v>151.9788982309427</v>
+        <v>142.0008030297109</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.8758009927686</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>280.9522844625884</v>
       </c>
       <c r="E26" t="n">
-        <v>298.2215177129356</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F26" t="n">
-        <v>323.1671933823853</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7128039286263</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H26" t="n">
         <v>333.4331447729346</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>286.0222483191429</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>312.5071814979591</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24530,13 +24530,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>73.93622809607479</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>61.36036003405772</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>53.31902250804634</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H27" t="n">
         <v>109.1870041687965</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.56032388999088</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S27" t="n">
         <v>165.8202538982478</v>
@@ -24578,16 +24578,16 @@
         <v>198.8924687392284</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206161404591</v>
+        <v>152.1898589823646</v>
       </c>
       <c r="V27" t="n">
-        <v>159.0698299913308</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>83.53796873930158</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>64.9066206588861</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,13 +24618,13 @@
         <v>167.72635546074</v>
       </c>
       <c r="H28" t="n">
-        <v>76.16557313021377</v>
+        <v>86.14366833144538</v>
       </c>
       <c r="I28" t="n">
         <v>147.4925126213155</v>
       </c>
       <c r="J28" t="n">
-        <v>64.92291371530422</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R28" t="n">
         <v>165.3949386670144</v>
       </c>
       <c r="S28" t="n">
-        <v>135.6960728419471</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T28" t="n">
         <v>226.8149236834831</v>
       </c>
       <c r="U28" t="n">
-        <v>202.59574296638</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>331.0039515693001</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H29" t="n">
         <v>333.4331447729346</v>
@@ -24730,25 +24730,25 @@
         <v>112.8117022876204</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5769579836776</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T29" t="n">
         <v>136.8045629298631</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2984582209158</v>
+        <v>177.5677010628212</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>275.5102115593185</v>
+        <v>265.5321163580867</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>302.5290862967273</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,25 +24761,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>88.99964662898948</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>83.91432329730637</v>
+        <v>73.93622809607469</v>
       </c>
       <c r="F30" t="n">
-        <v>61.36036003405762</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>53.31902250804625</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H30" t="n">
-        <v>25.47815180947028</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I30" t="n">
-        <v>78.52912398154929</v>
+        <v>1.649838354119396</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.56032388999088</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>165.8202538982478</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>96.12312782261104</v>
       </c>
       <c r="C31" t="n">
-        <v>83.53796873930158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>74.88471586011781</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>62.72511028724291</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.72635546074</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H31" t="n">
         <v>159.8744254895399</v>
@@ -24885,7 +24885,7 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R31" t="n">
-        <v>165.3949386670144</v>
+        <v>91.66418150891985</v>
       </c>
       <c r="S31" t="n">
         <v>219.4049252012732</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8117022876204</v>
+        <v>39.08094512952586</v>
       </c>
       <c r="S32" t="n">
-        <v>111.8681056243513</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T32" t="n">
-        <v>136.8045629298631</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U32" t="n">
-        <v>167.5896058615895</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>296.0003435203745</v>
+        <v>286.0222483191428</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5290862967273</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>89.65389802243742</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25013,7 +25013,7 @@
         <v>137.0278748673725</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1870041687965</v>
+        <v>25.47815180947028</v>
       </c>
       <c r="I33" t="n">
         <v>78.52912398154929</v>
@@ -25049,7 +25049,7 @@
         <v>82.11140153892156</v>
       </c>
       <c r="T33" t="n">
-        <v>115.1836163799021</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206161404591</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>128.8034101498745</v>
       </c>
     </row>
     <row r="34">
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>71.6902908648367</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.72635546074</v>
       </c>
       <c r="H34" t="n">
-        <v>159.8744254895399</v>
+        <v>76.16557313021367</v>
       </c>
       <c r="I34" t="n">
         <v>147.4925126213155</v>
@@ -25122,16 +25122,16 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R34" t="n">
-        <v>165.3949386670144</v>
+        <v>91.66418150891985</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4049252012732</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T34" t="n">
         <v>226.8149236834831</v>
       </c>
       <c r="U34" t="n">
-        <v>202.5957429663799</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V34" t="n">
         <v>168.4287909645017</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>142.0008030297109</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.10284992829416</v>
+        <v>29.10284992829418</v>
       </c>
       <c r="S35" t="n">
-        <v>111.8681056243513</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T35" t="n">
-        <v>136.8045629298631</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U35" t="n">
-        <v>177.5677010628212</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>244.0434061108086</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>265.5321163580867</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>296.0003435203745</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25241,19 +25241,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>83.9143232973064</v>
       </c>
       <c r="F36" t="n">
-        <v>61.36036003405762</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0278748673725</v>
+        <v>53.31902250804625</v>
       </c>
       <c r="H36" t="n">
         <v>25.47815180947028</v>
       </c>
       <c r="I36" t="n">
-        <v>4.798366823454742</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.56032388999088</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S36" t="n">
         <v>165.8202538982478</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8924687392284</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206161404591</v>
       </c>
       <c r="V36" t="n">
-        <v>149.091734790099</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>84.01750310141374</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H37" t="n">
-        <v>76.16557313021367</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I37" t="n">
-        <v>63.78366026198925</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J37" t="n">
         <v>74.65027054795544</v>
@@ -25359,13 +25359,13 @@
         <v>64.00340032544321</v>
       </c>
       <c r="R37" t="n">
-        <v>165.3949386670144</v>
+        <v>91.66418150891985</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4049252012732</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8149236834831</v>
+        <v>143.1060713241569</v>
       </c>
       <c r="U37" t="n">
         <v>286.3045953257062</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>212.7922411784964</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>134.8758009927685</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>299.0249893041543</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>281.5640394116813</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7128039286263</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H38" t="n">
         <v>333.4331447729346</v>
       </c>
       <c r="I38" t="n">
-        <v>104.0236226172017</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>275.5102115593185</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>312.507181497959</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>88.99964662898948</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>63.7362132053125</v>
       </c>
       <c r="E39" t="n">
-        <v>73.93622809607469</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>61.36036003405762</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>53.31902250804625</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H39" t="n">
         <v>109.1870041687965</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.56032388999088</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8202538982478</v>
+        <v>88.94096827081792</v>
       </c>
       <c r="T39" t="n">
         <v>198.8924687392284</v>
@@ -25529,7 +25529,7 @@
         <v>225.9206161404591</v>
       </c>
       <c r="V39" t="n">
-        <v>159.0698299913307</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25572,7 +25572,7 @@
         <v>147.4925126213155</v>
       </c>
       <c r="J40" t="n">
-        <v>64.92291371530408</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>81.68608630768817</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4049252012732</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T40" t="n">
         <v>143.1060713241569</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3045953257062</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V40" t="n">
-        <v>168.4287909645017</v>
+        <v>242.4102864911766</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>333.1452885836169</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7128039286263</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H41" t="n">
         <v>333.4331447729346</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8117022876204</v>
+        <v>29.10284992829418</v>
       </c>
       <c r="S41" t="n">
         <v>195.5769579836776</v>
@@ -25684,13 +25684,13 @@
         <v>136.8045629298631</v>
       </c>
       <c r="U41" t="n">
-        <v>167.5896058615895</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V41" t="n">
-        <v>244.0434061108086</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>275.5102115593185</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25721,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>60.14858923994258</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H42" t="n">
-        <v>25.47815180947028</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I42" t="n">
         <v>78.52912398154929</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S42" t="n">
         <v>165.8202538982478</v>
       </c>
       <c r="T42" t="n">
-        <v>115.1836163799021</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206161404591</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>131.9519386192098</v>
       </c>
     </row>
     <row r="43">
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>84.93701649127465</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H43" t="n">
-        <v>76.16557313021367</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I43" t="n">
-        <v>63.78366026198925</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.00340032544321</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>165.3949386670144</v>
+        <v>81.68608630768817</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4049252012732</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T43" t="n">
         <v>226.8149236834831</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>215.9822985563858</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>281.5640394116813</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7128039286263</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H44" t="n">
-        <v>259.70238761484</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I44" t="n">
-        <v>187.732474976528</v>
+        <v>104.0236226172017</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8117022876204</v>
+        <v>39.08094512952586</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5769579836776</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T44" t="n">
         <v>220.5134152891894</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>265.5321163580867</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>302.5290862967273</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25961,7 +25961,7 @@
         <v>137.0278748673725</v>
       </c>
       <c r="H45" t="n">
-        <v>25.47815180947028</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I45" t="n">
         <v>78.52912398154929</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.56032388999088</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8202538982478</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8924687392284</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206161404591</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>159.0698299913307</v>
       </c>
       <c r="W45" t="n">
-        <v>177.964226002825</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>122.0641328441512</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>121.9738434179781</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>83.53796873930158</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>64.9066206588861</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>135.6936911902799</v>
       </c>
       <c r="G46" t="n">
-        <v>167.72635546074</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H46" t="n">
         <v>159.8744254895399</v>
@@ -26067,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.00340032544321</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>165.3949386670144</v>
       </c>
       <c r="S46" t="n">
-        <v>145.6741680431787</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T46" t="n">
         <v>226.8149236834831</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>202.8141459772647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>142.0008030297109</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.8758009927685</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>376481.9854136885</v>
+        <v>376481.9854136884</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>376481.9854136884</v>
+        <v>376481.9854136885</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>376481.9854136884</v>
+        <v>376481.9854136885</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>376481.9854136886</v>
+        <v>376481.9854136884</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>376481.9854136884</v>
+        <v>376481.9854136885</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="E2" t="n">
         <v>136413.7220622892</v>
@@ -26334,10 +26334,10 @@
         <v>136413.7220622892</v>
       </c>
       <c r="I2" t="n">
+        <v>164871.2227893693</v>
+      </c>
+      <c r="J2" t="n">
         <v>164871.2227893692</v>
-      </c>
-      <c r="J2" t="n">
-        <v>164871.2227893691</v>
       </c>
       <c r="K2" t="n">
         <v>164871.2227893692</v>
@@ -26349,7 +26349,7 @@
         <v>164871.2227893692</v>
       </c>
       <c r="N2" t="n">
-        <v>164871.2227893693</v>
+        <v>164871.2227893692</v>
       </c>
       <c r="O2" t="n">
         <v>164871.2227893692</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22259.94172824437</v>
+        <v>22259.9417282444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>44751.35246715062</v>
+        <v>44751.35246715063</v>
       </c>
       <c r="F4" t="n">
-        <v>44751.35246715062</v>
+        <v>44751.35246715063</v>
       </c>
       <c r="G4" t="n">
-        <v>44751.35246715062</v>
+        <v>44751.35246715063</v>
       </c>
       <c r="H4" t="n">
-        <v>44751.35246715062</v>
+        <v>44751.35246715063</v>
       </c>
       <c r="I4" t="n">
-        <v>60551.3966588855</v>
+        <v>60551.39665888553</v>
       </c>
       <c r="J4" t="n">
-        <v>60551.39665888551</v>
+        <v>60551.39665888553</v>
       </c>
       <c r="K4" t="n">
         <v>60551.39665888553</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3199.062356240237</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="F5" t="n">
-        <v>3199.062356240237</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="G5" t="n">
-        <v>3199.062356240237</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="H5" t="n">
-        <v>3199.062356240237</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="I5" t="n">
-        <v>8288.560579687266</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="J5" t="n">
-        <v>8288.560579687266</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="K5" t="n">
-        <v>8288.560579687273</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="L5" t="n">
-        <v>8288.560579687273</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="M5" t="n">
-        <v>8288.560579687273</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="N5" t="n">
-        <v>8288.560579687273</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="O5" t="n">
-        <v>8288.560579687273</v>
+        <v>8288.560579687271</v>
       </c>
       <c r="P5" t="n">
-        <v>8288.560579687273</v>
+        <v>8288.560579687271</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43165.80461726405</v>
+        <v>43121.66883858298</v>
       </c>
       <c r="C6" t="n">
-        <v>43165.804617264</v>
+        <v>43121.66883858293</v>
       </c>
       <c r="D6" t="n">
-        <v>43165.804617264</v>
+        <v>43121.66883858304</v>
       </c>
       <c r="E6" t="n">
-        <v>-29432.85304506839</v>
+        <v>-44274.99220574675</v>
       </c>
       <c r="F6" t="n">
-        <v>88463.30723889834</v>
+        <v>73621.16807821995</v>
       </c>
       <c r="G6" t="n">
-        <v>88463.30723889834</v>
+        <v>73621.16807821995</v>
       </c>
       <c r="H6" t="n">
-        <v>88463.30723889834</v>
+        <v>73621.16807821995</v>
       </c>
       <c r="I6" t="n">
-        <v>73771.32382255208</v>
+        <v>60114.91385883538</v>
       </c>
       <c r="J6" t="n">
-        <v>96031.26555079634</v>
+        <v>82374.85558707971</v>
       </c>
       <c r="K6" t="n">
-        <v>96031.26555079644</v>
+        <v>82374.85558707968</v>
       </c>
       <c r="L6" t="n">
-        <v>96031.26555079638</v>
+        <v>82374.85558707971</v>
       </c>
       <c r="M6" t="n">
-        <v>96031.26555079641</v>
+        <v>82374.85558707974</v>
       </c>
       <c r="N6" t="n">
-        <v>96031.2655507965</v>
+        <v>82374.85558707968</v>
       </c>
       <c r="O6" t="n">
-        <v>96031.26555079638</v>
+        <v>82374.85558707971</v>
       </c>
       <c r="P6" t="n">
-        <v>96031.26555079644</v>
+        <v>82374.85558707971</v>
       </c>
     </row>
   </sheetData>
@@ -26810,10 +26810,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J4" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="K4" t="n">
         <v>83.70885235932626</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H11" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I11" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J11" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K11" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L11" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M11" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N11" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O11" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P11" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R11" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S11" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T11" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,40 +31834,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H12" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I12" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J12" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K12" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L12" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M12" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N12" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O12" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P12" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R12" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S12" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T12" t="n">
         <v>1.272259955593204</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H13" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I13" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J13" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K13" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L13" t="n">
         <v>39.3423565753894</v>
@@ -31934,22 +31934,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O13" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P13" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R13" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S13" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T13" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U13" t="n">
         <v>0.01443403078466043</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H14" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I14" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J14" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K14" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L14" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M14" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N14" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O14" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P14" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R14" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S14" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T14" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,40 +32071,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H15" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I15" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J15" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K15" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L15" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M15" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N15" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O15" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P15" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R15" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S15" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T15" t="n">
         <v>1.272259955593204</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H16" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I16" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J16" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K16" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L16" t="n">
         <v>39.3423565753894</v>
@@ -32171,22 +32171,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O16" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P16" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R16" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S16" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T16" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U16" t="n">
         <v>0.01443403078466043</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H17" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I17" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J17" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K17" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L17" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M17" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N17" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O17" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P17" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R17" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S17" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T17" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,40 +32308,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H18" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I18" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J18" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K18" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L18" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M18" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N18" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O18" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P18" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R18" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S18" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T18" t="n">
         <v>1.272259955593204</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H19" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I19" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J19" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K19" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L19" t="n">
         <v>39.3423565753894</v>
@@ -32408,22 +32408,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O19" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P19" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R19" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S19" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T19" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U19" t="n">
         <v>0.01443403078466043</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H20" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I20" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J20" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K20" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L20" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M20" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N20" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O20" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P20" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R20" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S20" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T20" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,40 +32545,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H21" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I21" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J21" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K21" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L21" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M21" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N21" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O21" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P21" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R21" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S21" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T21" t="n">
         <v>1.272259955593204</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H22" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I22" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J22" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K22" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L22" t="n">
         <v>39.3423565753894</v>
@@ -32645,22 +32645,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O22" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P22" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R22" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S22" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T22" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U22" t="n">
         <v>0.01443403078466043</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H23" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I23" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J23" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K23" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L23" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M23" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N23" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O23" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P23" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R23" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S23" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T23" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,40 +32782,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H24" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I24" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J24" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K24" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L24" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M24" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N24" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O24" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P24" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R24" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S24" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T24" t="n">
         <v>1.272259955593204</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H25" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I25" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J25" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K25" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L25" t="n">
         <v>39.3423565753894</v>
@@ -32882,22 +32882,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O25" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P25" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R25" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S25" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T25" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U25" t="n">
         <v>0.01443403078466043</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H26" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I26" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J26" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K26" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L26" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M26" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N26" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O26" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P26" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R26" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S26" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T26" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,40 +33019,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H27" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I27" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J27" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K27" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L27" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M27" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N27" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O27" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P27" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R27" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S27" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T27" t="n">
         <v>1.272259955593204</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H28" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I28" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J28" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K28" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L28" t="n">
         <v>39.3423565753894</v>
@@ -33119,22 +33119,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O28" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P28" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R28" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S28" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T28" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U28" t="n">
         <v>0.01443403078466043</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H29" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I29" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J29" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K29" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L29" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M29" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N29" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O29" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P29" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R29" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S29" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T29" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,40 +33256,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H30" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I30" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J30" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K30" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L30" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M30" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N30" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O30" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P30" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R30" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S30" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T30" t="n">
         <v>1.272259955593204</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H31" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I31" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J31" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K31" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L31" t="n">
         <v>39.3423565753894</v>
@@ -33356,22 +33356,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O31" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P31" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R31" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S31" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T31" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U31" t="n">
         <v>0.01443403078466043</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H32" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I32" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J32" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K32" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L32" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M32" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N32" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O32" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P32" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R32" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S32" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T32" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,40 +33493,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H33" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I33" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J33" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K33" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L33" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M33" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N33" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O33" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P33" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R33" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S33" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T33" t="n">
         <v>1.272259955593204</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H34" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I34" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J34" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K34" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L34" t="n">
         <v>39.3423565753894</v>
@@ -33593,22 +33593,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O34" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P34" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R34" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S34" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T34" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U34" t="n">
         <v>0.01443403078466043</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H35" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I35" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J35" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K35" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L35" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M35" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N35" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O35" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P35" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R35" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S35" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T35" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,40 +33730,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H36" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I36" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J36" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K36" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L36" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M36" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N36" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O36" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P36" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R36" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S36" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T36" t="n">
         <v>1.272259955593204</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H37" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I37" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J37" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K37" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L37" t="n">
         <v>39.3423565753894</v>
@@ -33830,22 +33830,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O37" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P37" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R37" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S37" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T37" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U37" t="n">
         <v>0.01443403078466043</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H38" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I38" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J38" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K38" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L38" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M38" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N38" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O38" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P38" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R38" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S38" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T38" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,40 +33967,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H39" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I39" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J39" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K39" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L39" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M39" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N39" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O39" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P39" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R39" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S39" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T39" t="n">
         <v>1.272259955593204</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H40" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I40" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J40" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K40" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L40" t="n">
         <v>39.3423565753894</v>
@@ -34067,22 +34067,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O40" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P40" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R40" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S40" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T40" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U40" t="n">
         <v>0.01443403078466043</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H41" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I41" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J41" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K41" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L41" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M41" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N41" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O41" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P41" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R41" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S41" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T41" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,40 +34204,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H42" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I42" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J42" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K42" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L42" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M42" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N42" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O42" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P42" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R42" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S42" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T42" t="n">
         <v>1.272259955593204</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H43" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I43" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J43" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K43" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L43" t="n">
         <v>39.3423565753894</v>
@@ -34304,22 +34304,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O43" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P43" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R43" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S43" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T43" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U43" t="n">
         <v>0.01443403078466043</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5899335865087334</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H44" t="n">
-        <v>6.041657342832568</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I44" t="n">
-        <v>22.74341459387797</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J44" t="n">
-        <v>50.06987573794566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K44" t="n">
-        <v>75.04176445486036</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L44" t="n">
-        <v>93.09594445297702</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M44" t="n">
         <v>103.5871758720517</v>
       </c>
       <c r="N44" t="n">
-        <v>105.2633246747197</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O44" t="n">
-        <v>99.39717257387343</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P44" t="n">
-        <v>84.83318715693906</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.70619059009503</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R44" t="n">
         <v>37.05741565352925</v>
       </c>
       <c r="S44" t="n">
-        <v>13.44311160256778</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T44" t="n">
-        <v>2.582434274941982</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04719468692069866</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,40 +34441,40 @@
         <v>0.31564229583814</v>
       </c>
       <c r="H45" t="n">
-        <v>3.048440067699932</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I45" t="n">
-        <v>10.86750886986579</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J45" t="n">
         <v>29.82127497653234</v>
       </c>
       <c r="K45" t="n">
-        <v>50.96930879768772</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L45" t="n">
-        <v>68.53452568187335</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M45" t="n">
-        <v>79.97655890600589</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N45" t="n">
-        <v>82.09330044256959</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O45" t="n">
-        <v>75.09933167689289</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P45" t="n">
         <v>60.27383454474096</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.2914621845317</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R45" t="n">
         <v>19.59751026265224</v>
       </c>
       <c r="S45" t="n">
-        <v>5.862917205590009</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T45" t="n">
         <v>1.272259955593204</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2646238977187742</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H46" t="n">
-        <v>2.352747017899649</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I46" t="n">
-        <v>7.957962305942776</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J46" t="n">
         <v>18.70890956871733</v>
       </c>
       <c r="K46" t="n">
-        <v>30.74448557132667</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L46" t="n">
         <v>39.3423565753894</v>
@@ -34541,22 +34541,22 @@
         <v>40.49467336636481</v>
       </c>
       <c r="O46" t="n">
-        <v>37.40338510665003</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P46" t="n">
         <v>32.005057593187</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.15864292625118</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R46" t="n">
         <v>11.89845271015506</v>
       </c>
       <c r="S46" t="n">
-        <v>4.611672835699</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T46" t="n">
-        <v>1.130665744798399</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U46" t="n">
         <v>0.01443403078466043</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.12058638333314</v>
+        <v>38.12058638333313</v>
       </c>
       <c r="K23" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L23" t="n">
-        <v>72.19945110686686</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>72.19945110686713</v>
       </c>
       <c r="O23" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.71549137555022</v>
+        <v>53.71549137555021</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.07468365027448</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L24" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M24" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N24" t="n">
-        <v>83.70885235932616</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>80.32667650642408</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.474993745443818</v>
+        <v>8.474993745443811</v>
       </c>
       <c r="L25" t="n">
         <v>66.93238183570554</v>
@@ -36527,10 +36527,10 @@
         <v>81.06487576515715</v>
       </c>
       <c r="N25" t="n">
-        <v>83.70885235932589</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O25" t="n">
-        <v>61.9885130206897</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P25" t="n">
         <v>29.28361685808049</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.12058638333314</v>
+        <v>38.12058638333313</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>72.19945110686686</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O26" t="n">
-        <v>83.70885235932616</v>
+        <v>42.20609012309109</v>
       </c>
       <c r="P26" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.71549137555022</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N27" t="n">
-        <v>80.32667650642408</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>83.70885235932616</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q27" t="n">
-        <v>83.70885235932616</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.474993745443538</v>
+        <v>8.474993745443811</v>
       </c>
       <c r="L28" t="n">
         <v>66.93238183570554</v>
@@ -36764,10 +36764,10 @@
         <v>81.06487576515715</v>
       </c>
       <c r="N28" t="n">
-        <v>83.70885235932616</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O28" t="n">
-        <v>61.9885130206897</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P28" t="n">
         <v>29.28361685808049</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.12058638333314</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="L29" t="n">
-        <v>42.20609012309107</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.07468365027449</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="L30" t="n">
+        <v>80.32667650642419</v>
+      </c>
+      <c r="M30" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="M30" t="n">
-        <v>51.25199285614969</v>
-      </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.474993745443818</v>
+        <v>8.474993745443811</v>
       </c>
       <c r="L31" t="n">
-        <v>66.93238183570557</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M31" t="n">
         <v>81.06487576515715</v>
@@ -37004,7 +37004,7 @@
         <v>83.70885235932626</v>
       </c>
       <c r="O31" t="n">
-        <v>61.9885130206897</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P31" t="n">
         <v>29.28361685808049</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.12058638333314</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37080,16 +37080,16 @@
         <v>83.70885235932626</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O32" t="n">
-        <v>72.19945110686707</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.71549137555022</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.07468365027449</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="L33" t="n">
-        <v>51.25199285614971</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P33" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="Q33" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.474993745443818</v>
+        <v>8.474993745443811</v>
       </c>
       <c r="L34" t="n">
         <v>66.93238183570554</v>
@@ -37238,10 +37238,10 @@
         <v>81.06487576515715</v>
       </c>
       <c r="N34" t="n">
-        <v>83.70885235932629</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O34" t="n">
-        <v>61.9885130206897</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P34" t="n">
         <v>29.28361685808049</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.12058638333314</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="M35" t="n">
+        <v>80.32667650642419</v>
+      </c>
+      <c r="N35" t="n">
         <v>83.70885235932626</v>
       </c>
-      <c r="N35" t="n">
-        <v>42.20609012309109</v>
-      </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.07468365027449</v>
+        <v>29.07468365027448</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.25199285614971</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N36" t="n">
+        <v>51.25199285614972</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="O36" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>83.70885235932626</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.474993745443818</v>
+        <v>8.474993745443811</v>
       </c>
       <c r="L37" t="n">
         <v>66.93238183570554</v>
       </c>
       <c r="M37" t="n">
-        <v>81.06487576515718</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N37" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="O37" t="n">
-        <v>61.9885130206897</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P37" t="n">
         <v>29.28361685808049</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>38.12058638333313</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>42.20609012309107</v>
+      </c>
+      <c r="N38" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="M38" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="N38" t="n">
-        <v>26.61118513087395</v>
       </c>
       <c r="O38" t="n">
         <v>83.70885235932626</v>
@@ -37563,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.71549137555022</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.07468365027449</v>
+        <v>29.07468365027448</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M39" t="n">
-        <v>51.25199285614971</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="N39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37703,19 +37703,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.474993745443818</v>
+        <v>8.474993745443811</v>
       </c>
       <c r="L40" t="n">
         <v>66.93238183570554</v>
       </c>
       <c r="M40" t="n">
-        <v>81.06487576515715</v>
+        <v>81.06487576515718</v>
       </c>
       <c r="N40" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="O40" t="n">
-        <v>61.9885130206897</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P40" t="n">
         <v>29.28361685808049</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.12058638333314</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M41" t="n">
         <v>83.70885235932626</v>
@@ -37794,13 +37794,13 @@
         <v>83.70885235932626</v>
       </c>
       <c r="O41" t="n">
-        <v>72.19945110686707</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.71549137555022</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M42" t="n">
+        <v>80.32667650642419</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>83.70885235932626</v>
-      </c>
-      <c r="N42" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="O42" t="n">
-        <v>83.70885235932626</v>
-      </c>
-      <c r="P42" t="n">
-        <v>80.32667650642419</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.474993745443818</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L43" t="n">
         <v>66.93238183570554</v>
@@ -37949,10 +37949,10 @@
         <v>81.06487576515715</v>
       </c>
       <c r="N43" t="n">
-        <v>83.70885235932629</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O43" t="n">
-        <v>61.9885130206897</v>
+        <v>61.98851302068969</v>
       </c>
       <c r="P43" t="n">
         <v>29.28361685808049</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.12058638333314</v>
+        <v>38.12058638333313</v>
       </c>
       <c r="K44" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>42.20609012309107</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>83.70885235932626</v>
+        <v>72.19945110686713</v>
       </c>
       <c r="O44" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>53.71549137555021</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.07468365027448</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M45" t="n">
-        <v>80.32667650642419</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N45" t="n">
-        <v>83.70885235932626</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="O45" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>83.70885235932626</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,19 +38177,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>8.474993745443818</v>
+        <v>8.474993745443811</v>
       </c>
       <c r="L46" t="n">
         <v>66.93238183570554</v>
       </c>
       <c r="M46" t="n">
-        <v>81.06487576515718</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N46" t="n">
         <v>83.70885235932626</v>
       </c>
       <c r="O46" t="n">
-        <v>61.9885130206897</v>
+        <v>61.98851302068972</v>
       </c>
       <c r="P46" t="n">
         <v>29.28361685808049</v>
